--- a/week_00.xlsx
+++ b/week_00.xlsx
@@ -9,13 +9,12 @@
     <sheet name="Assets" sheetId="2" r:id="rId5"/>
     <sheet name="Risks" sheetId="3" r:id="rId6"/>
     <sheet name="Org Structure" sheetId="4" r:id="rId7"/>
-    <sheet name="Obsolete" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="460">
   <si>
     <t>Table 1</t>
   </si>
@@ -110,6 +109,12 @@
     <t>Max Length: 50</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Org ID</t>
+  </si>
+  <si>
     <t>Level</t>
   </si>
   <si>
@@ -488,9 +493,6 @@
     <t>Org Structure</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Abbreviations</t>
   </si>
   <si>
@@ -1392,111 +1394,6 @@
   </si>
   <si>
     <t>Branch 07</t>
-  </si>
-  <si>
-    <t>Abbrev</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>Grandparent</t>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>EOps</t>
-  </si>
-  <si>
-    <t>division</t>
-  </si>
-  <si>
-    <t>Deputy ACIO EOps (Exec)</t>
-  </si>
-  <si>
-    <t>Exec</t>
-  </si>
-  <si>
-    <t>3805</t>
-  </si>
-  <si>
-    <t>3808</t>
-  </si>
-  <si>
-    <t>Technology Implementation Services</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>Aged Infras Init Supp Office</t>
-  </si>
-  <si>
-    <t>Cloud Integration Office</t>
-  </si>
-  <si>
-    <t>Distributed Db Services Branch 1</t>
-  </si>
-  <si>
-    <t>Distributed Db Services Branch 2</t>
-  </si>
-  <si>
-    <t>Dmpg Program Office</t>
-  </si>
-  <si>
-    <t>Ecc Division Mgmt Office</t>
-  </si>
-  <si>
-    <t>Enterprise Messg &amp; Virtualization Branch</t>
-  </si>
-  <si>
-    <t>IBM Z/Vm &amp; Tpf Services Branch</t>
-  </si>
-  <si>
-    <t>IT OCC Division Mgmt Office</t>
-  </si>
-  <si>
-    <t>BU</t>
-  </si>
-  <si>
-    <t>BU 01-01-01</t>
-  </si>
-  <si>
-    <t>Department 01-01</t>
-  </si>
-  <si>
-    <t>Division 01</t>
-  </si>
-  <si>
-    <t>BU 01-01-02</t>
-  </si>
-  <si>
-    <t>BU 01-01-03</t>
-  </si>
-  <si>
-    <t>BU 01-02-01</t>
-  </si>
-  <si>
-    <t>Department 01-02</t>
-  </si>
-  <si>
-    <t>BU 02-01-01</t>
-  </si>
-  <si>
-    <t>Department 02-01</t>
-  </si>
-  <si>
-    <t>Division 02</t>
-  </si>
-  <si>
-    <t>BU 02-01-02</t>
-  </si>
-  <si>
-    <t>BU 01-03-01</t>
-  </si>
-  <si>
-    <t>Department 01-03</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1624,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1841,30 +1738,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2920,7 +2793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3105,139 +2978,121 @@
       </c>
     </row>
     <row r="10" ht="56.05" customHeight="1">
-      <c r="A10" t="s" s="10">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" ht="27.65" customHeight="1">
+      <c r="A11" t="s" s="10">
         <v>31</v>
       </c>
-      <c r="B10" t="s" s="11">
+      <c r="B11" t="s" s="11">
         <v>32</v>
       </c>
-      <c r="C10" t="s" s="12">
+      <c r="C11" t="s" s="12">
         <v>24</v>
-      </c>
-      <c r="D10" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s" s="12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s" s="12">
-        <v>10</v>
       </c>
       <c r="D11" t="s" s="12">
         <v>11</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="14">
-        <v>100</v>
-      </c>
+      <c r="F11" s="13"/>
       <c r="G11" t="s" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="26.7" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s" s="12">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s" s="12">
         <v>11</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="14">
-        <v>9999</v>
-      </c>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" ht="32.05" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s" s="12">
         <v>10</v>
       </c>
       <c r="D13" t="s" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="14">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s" s="12">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s" s="12">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E14" s="14">
-        <v>1</v>
-      </c>
+      <c r="E14" s="13"/>
       <c r="F14" s="14">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s" s="12">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
+        <v>9999</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" ht="32.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s" s="11">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s" s="12">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="E15" s="14">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E15" s="13"/>
       <c r="F15" s="14">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s" s="12">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s" s="11">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s" s="12">
         <v>24</v>
@@ -3252,137 +3107,165 @@
         <v>5</v>
       </c>
       <c r="G16" t="s" s="12">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s" s="11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s" s="12">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="E17" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
       <c r="F17" s="14">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="G17" t="s" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s" s="12">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14">
+        <v>5</v>
+      </c>
       <c r="G18" t="s" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" ht="32.05" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s" s="12">
         <v>10</v>
       </c>
       <c r="D19" t="s" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="14">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G19" t="s" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" ht="32.05" customHeight="1">
-      <c r="A20" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s" s="11">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s" s="12">
         <v>10</v>
-      </c>
-      <c r="D20" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14">
-        <v>50</v>
-      </c>
-      <c r="G20" t="s" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" ht="32.05" customHeight="1">
-      <c r="A21" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s" s="11">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s" s="12">
-        <v>24</v>
       </c>
       <c r="D21" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" t="s" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="32.05" customHeight="1">
+      <c r="A22" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" ht="32.05" customHeight="1">
+      <c r="A23" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s" s="11">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="32.05" customHeight="1">
+      <c r="A24" t="s" s="10">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="E24" s="14">
         <v>0</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F24" s="15">
         <v>100000000</v>
       </c>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
       <c r="G24" s="13"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
@@ -3411,6 +3294,33 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3452,28 +3362,28 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s" s="5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s" s="5">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="19"/>
     </row>
     <row r="3" ht="32.25" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s" s="20">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" s="21">
         <v>1000000</v>
@@ -3482,13 +3392,13 @@
     </row>
     <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s" s="12">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4" s="15">
         <v>1500000</v>
@@ -3497,13 +3407,13 @@
     </row>
     <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s" s="12">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5" s="15">
         <v>1350000</v>
@@ -3512,13 +3422,13 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s" s="12">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" s="15">
         <v>1750000</v>
@@ -3527,13 +3437,13 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s" s="12">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="15">
         <v>850000</v>
@@ -3542,13 +3452,13 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s" s="12">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D8" s="15">
         <v>5500000</v>
@@ -3557,13 +3467,13 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s" s="12">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9" s="15">
         <v>4500000</v>
@@ -3572,13 +3482,13 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s" s="12">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D10" s="15">
         <v>4000000</v>
@@ -3587,13 +3497,13 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s" s="12">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D11" s="15">
         <v>2000000</v>
@@ -3602,13 +3512,13 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s" s="12">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D12" s="15">
         <v>500000</v>
@@ -3624,13 +3534,13 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s" s="11">
         <v>88</v>
       </c>
-      <c r="B14" t="s" s="11">
-        <v>86</v>
-      </c>
       <c r="C14" t="s" s="12">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D14" s="15">
         <v>600000</v>
@@ -3639,13 +3549,13 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s" s="12">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D15" s="15">
         <v>560000</v>
@@ -3654,13 +3564,13 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s" s="12">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D16" s="15">
         <v>65000</v>
@@ -3669,13 +3579,13 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s" s="12">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D17" s="15">
         <v>275000</v>
@@ -3684,13 +3594,13 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s" s="12">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D18" s="15">
         <v>70000</v>
@@ -3699,13 +3609,13 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s" s="12">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D19" s="15">
         <v>450000</v>
@@ -3779,48 +3689,48 @@
         <v>28</v>
       </c>
       <c r="H2" t="s" s="24">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s" s="24">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s" s="24">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s" s="24">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="24">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="24">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="32.05" customHeight="1">
       <c r="A3" t="s" s="10">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s" s="12">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s" s="12">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s" s="12">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s" s="12">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s" s="12">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I3" s="14">
         <v>3</v>
@@ -3832,36 +3742,36 @@
         <v>4</v>
       </c>
       <c r="L3" t="s" s="12">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M3" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="10">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s" s="12">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s" s="12">
+        <v>118</v>
+      </c>
+      <c r="H4" t="s" s="12">
         <v>113</v>
-      </c>
-      <c r="B4" t="s" s="11">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s" s="12">
-        <v>115</v>
-      </c>
-      <c r="D4" t="s" s="12">
-        <v>108</v>
-      </c>
-      <c r="E4" t="s" s="12">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s" s="12">
-        <v>109</v>
-      </c>
-      <c r="G4" t="s" s="12">
-        <v>116</v>
-      </c>
-      <c r="H4" t="s" s="12">
-        <v>111</v>
       </c>
       <c r="I4" s="14">
         <v>1</v>
@@ -3873,36 +3783,36 @@
         <v>4</v>
       </c>
       <c r="L4" t="s" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s" s="12">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s" s="12">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s" s="12">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s" s="12">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s" s="12">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H5" t="s" s="12">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I5" s="14">
         <v>1</v>
@@ -3914,36 +3824,36 @@
         <v>3</v>
       </c>
       <c r="L5" t="s" s="12">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" ht="32.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s" s="12">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s" s="12">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s" s="12">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="12">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G6" t="s" s="12">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H6" t="s" s="12">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I6" s="14">
         <v>2</v>
@@ -3955,36 +3865,36 @@
         <v>1</v>
       </c>
       <c r="L6" t="s" s="12">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="32.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s" s="12">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s" s="12">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s" s="12">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s" s="12">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G7" t="s" s="12">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s" s="12">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I7" s="14">
         <v>2</v>
@@ -3996,36 +3906,36 @@
         <v>3</v>
       </c>
       <c r="L7" t="s" s="12">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M7" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" ht="32.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s" s="11">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>135</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s" s="12">
+        <v>122</v>
+      </c>
+      <c r="G8" t="s" s="12">
         <v>132</v>
       </c>
-      <c r="C8" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="D8" t="s" s="12">
-        <v>108</v>
-      </c>
-      <c r="E8" t="s" s="12">
-        <v>75</v>
-      </c>
-      <c r="F8" t="s" s="12">
-        <v>120</v>
-      </c>
-      <c r="G8" t="s" s="12">
-        <v>130</v>
-      </c>
       <c r="H8" t="s" s="12">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I8" s="14">
         <v>1</v>
@@ -4037,36 +3947,36 @@
         <v>4</v>
       </c>
       <c r="L8" t="s" s="12">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M8" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s" s="12">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s" s="12">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s" s="12">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s" s="12">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G9" t="s" s="12">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H9" t="s" s="12">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I9" s="14">
         <v>1</v>
@@ -4078,36 +3988,36 @@
         <v>3</v>
       </c>
       <c r="L9" t="s" s="12">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M9" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" ht="32.05" customHeight="1">
       <c r="A10" t="s" s="10">
+        <v>142</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s" s="12">
+        <v>144</v>
+      </c>
+      <c r="D10" t="s" s="12">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s" s="12">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s" s="12">
         <v>140</v>
       </c>
-      <c r="B10" t="s" s="11">
-        <v>141</v>
-      </c>
-      <c r="C10" t="s" s="12">
-        <v>142</v>
-      </c>
-      <c r="D10" t="s" s="12">
-        <v>108</v>
-      </c>
-      <c r="E10" t="s" s="12">
-        <v>89</v>
-      </c>
-      <c r="F10" t="s" s="12">
-        <v>138</v>
-      </c>
       <c r="G10" t="s" s="12">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s" s="12">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I10" s="14">
         <v>2</v>
@@ -4119,36 +4029,36 @@
         <v>2</v>
       </c>
       <c r="L10" t="s" s="12">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s" s="12">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="12">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s" s="12">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s" s="12">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s" s="12">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H11" t="s" s="12">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I11" s="14">
         <v>3</v>
@@ -4160,36 +4070,36 @@
         <v>4</v>
       </c>
       <c r="L11" t="s" s="12">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M11" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" ht="32.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s" s="12">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s" s="12">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s" s="12">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s" s="12">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s" s="12">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H12" t="s" s="12">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I12" s="14">
         <v>5</v>
@@ -4201,36 +4111,36 @@
         <v>3</v>
       </c>
       <c r="L12" t="s" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M12" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" ht="32.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s" s="12">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s" s="12">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s" s="12">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s" s="12">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s" s="12">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H13" t="s" s="12">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I13" s="14">
         <v>3</v>
@@ -4242,10 +4152,10 @@
         <v>2</v>
       </c>
       <c r="L13" t="s" s="12">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M13" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" ht="32.05" customHeight="1">
@@ -4296,7 +4206,7 @@
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4305,19 +4215,19 @@
     </row>
     <row r="2" ht="23.2" customHeight="1">
       <c r="A2" t="s" s="26">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="26">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="26">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s" s="26">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s" s="26">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" ht="23.2" customHeight="1">
@@ -4328,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s" s="29">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
@@ -4341,13 +4251,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s" s="33">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" t="s" s="33">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" ht="23" customHeight="1">
@@ -4358,13 +4268,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="33">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D5" s="34">
         <v>100</v>
       </c>
       <c r="E5" t="s" s="33">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" ht="23" customHeight="1">
@@ -4375,13 +4285,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s" s="33">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D6" s="34">
         <v>101</v>
       </c>
       <c r="E6" t="s" s="33">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" ht="23" customHeight="1">
@@ -4392,13 +4302,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s" s="33">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D7" s="34">
         <v>101</v>
       </c>
       <c r="E7" t="s" s="33">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" ht="23" customHeight="1">
@@ -4409,13 +4319,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s" s="33">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D8" s="34">
         <v>100</v>
       </c>
       <c r="E8" t="s" s="33">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" ht="23" customHeight="1">
@@ -4426,13 +4336,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s" s="33">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D9" s="34">
         <v>100</v>
       </c>
       <c r="E9" t="s" s="33">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" ht="23" customHeight="1">
@@ -4443,13 +4353,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s" s="33">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D10" s="34">
         <v>100</v>
       </c>
       <c r="E10" t="s" s="33">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" ht="23" customHeight="1">
@@ -4460,13 +4370,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s" s="33">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D11" s="34">
         <v>106</v>
       </c>
       <c r="E11" t="s" s="33">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" ht="23" customHeight="1">
@@ -4477,13 +4387,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s" s="33">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D12" s="34">
         <v>106</v>
       </c>
       <c r="E12" t="s" s="33">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" ht="23" customHeight="1">
@@ -4494,13 +4404,13 @@
         <v>3</v>
       </c>
       <c r="C13" t="s" s="33">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D13" s="34">
         <v>100</v>
       </c>
       <c r="E13" t="s" s="33">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" ht="23" customHeight="1">
@@ -4518,13 +4428,13 @@
         <v>2</v>
       </c>
       <c r="C15" t="s" s="33">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D15" s="34">
         <v>1</v>
       </c>
       <c r="E15" t="s" s="33">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" ht="23" customHeight="1">
@@ -4535,13 +4445,13 @@
         <v>3</v>
       </c>
       <c r="C16" t="s" s="33">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D16" s="34">
         <v>200</v>
       </c>
       <c r="E16" t="s" s="33">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" ht="23" customHeight="1">
@@ -4552,13 +4462,13 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="33">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D17" s="34">
         <v>200</v>
       </c>
       <c r="E17" t="s" s="33">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" ht="23" customHeight="1">
@@ -4569,13 +4479,13 @@
         <v>4</v>
       </c>
       <c r="C18" t="s" s="33">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D18" s="34">
         <v>202</v>
       </c>
       <c r="E18" t="s" s="33">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" ht="23" customHeight="1">
@@ -4586,13 +4496,13 @@
         <v>4</v>
       </c>
       <c r="C19" t="s" s="33">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D19" s="34">
         <v>202</v>
       </c>
       <c r="E19" t="s" s="33">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" ht="23" customHeight="1">
@@ -4603,13 +4513,13 @@
         <v>4</v>
       </c>
       <c r="C20" t="s" s="33">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D20" s="34">
         <v>202</v>
       </c>
       <c r="E20" t="s" s="33">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" ht="23" customHeight="1">
@@ -4620,13 +4530,13 @@
         <v>3</v>
       </c>
       <c r="C21" t="s" s="33">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D21" s="34">
         <v>200</v>
       </c>
       <c r="E21" t="s" s="33">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" ht="23" customHeight="1">
@@ -4637,13 +4547,13 @@
         <v>4</v>
       </c>
       <c r="C22" t="s" s="33">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D22" s="34">
         <v>206</v>
       </c>
       <c r="E22" t="s" s="33">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" ht="23" customHeight="1">
@@ -4654,13 +4564,13 @@
         <v>4</v>
       </c>
       <c r="C23" t="s" s="33">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D23" s="34">
         <v>206</v>
       </c>
       <c r="E23" t="s" s="33">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" ht="23" customHeight="1">
@@ -4671,13 +4581,13 @@
         <v>4</v>
       </c>
       <c r="C24" t="s" s="33">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D24" s="34">
         <v>206</v>
       </c>
       <c r="E24" t="s" s="33">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" ht="23" customHeight="1">
@@ -4688,13 +4598,13 @@
         <v>3</v>
       </c>
       <c r="C25" t="s" s="33">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D25" s="34">
         <v>200</v>
       </c>
       <c r="E25" t="s" s="33">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" ht="23" customHeight="1">
@@ -4705,13 +4615,13 @@
         <v>4</v>
       </c>
       <c r="C26" t="s" s="33">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D26" s="34">
         <v>210</v>
       </c>
       <c r="E26" t="s" s="33">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" ht="23" customHeight="1">
@@ -4722,13 +4632,13 @@
         <v>4</v>
       </c>
       <c r="C27" t="s" s="33">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D27" s="34">
         <v>210</v>
       </c>
       <c r="E27" t="s" s="33">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" ht="23" customHeight="1">
@@ -4739,13 +4649,13 @@
         <v>3</v>
       </c>
       <c r="C28" t="s" s="33">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D28" s="34">
         <v>200</v>
       </c>
       <c r="E28" t="s" s="33">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" ht="23" customHeight="1">
@@ -4756,13 +4666,13 @@
         <v>4</v>
       </c>
       <c r="C29" t="s" s="33">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D29" s="34">
         <v>213</v>
       </c>
       <c r="E29" t="s" s="33">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" ht="23" customHeight="1">
@@ -4773,13 +4683,13 @@
         <v>4</v>
       </c>
       <c r="C30" t="s" s="33">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D30" s="34">
         <v>213</v>
       </c>
       <c r="E30" t="s" s="33">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" ht="23" customHeight="1">
@@ -4790,13 +4700,13 @@
         <v>3</v>
       </c>
       <c r="C31" t="s" s="33">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D31" s="34">
         <v>200</v>
       </c>
       <c r="E31" t="s" s="33">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" ht="23" customHeight="1">
@@ -4807,13 +4717,13 @@
         <v>4</v>
       </c>
       <c r="C32" t="s" s="33">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D32" s="34">
         <v>216</v>
       </c>
       <c r="E32" t="s" s="33">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" ht="23" customHeight="1">
@@ -4824,13 +4734,13 @@
         <v>4</v>
       </c>
       <c r="C33" t="s" s="33">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D33" s="34">
         <v>216</v>
       </c>
       <c r="E33" t="s" s="33">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" ht="23" customHeight="1">
@@ -4841,13 +4751,13 @@
         <v>3</v>
       </c>
       <c r="C34" t="s" s="33">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D34" s="34">
         <v>200</v>
       </c>
       <c r="E34" t="s" s="33">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" ht="23" customHeight="1">
@@ -4858,13 +4768,13 @@
         <v>3</v>
       </c>
       <c r="C35" t="s" s="33">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D35" s="34">
         <v>200</v>
       </c>
       <c r="E35" t="s" s="33">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" ht="23" customHeight="1">
@@ -4875,13 +4785,13 @@
         <v>3</v>
       </c>
       <c r="C36" t="s" s="33">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D36" s="34">
         <v>200</v>
       </c>
       <c r="E36" t="s" s="33">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" ht="23" customHeight="1">
@@ -4892,13 +4802,13 @@
         <v>3</v>
       </c>
       <c r="C37" t="s" s="33">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D37" s="34">
         <v>200</v>
       </c>
       <c r="E37" t="s" s="33">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" ht="23" customHeight="1">
@@ -4909,13 +4819,13 @@
         <v>4</v>
       </c>
       <c r="C38" t="s" s="33">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D38" s="34">
         <v>222</v>
       </c>
       <c r="E38" t="s" s="33">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" ht="23" customHeight="1">
@@ -4926,13 +4836,13 @@
         <v>4</v>
       </c>
       <c r="C39" t="s" s="33">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D39" s="34">
         <v>222</v>
       </c>
       <c r="E39" t="s" s="33">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" ht="23" customHeight="1">
@@ -4943,13 +4853,13 @@
         <v>4</v>
       </c>
       <c r="C40" t="s" s="33">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D40" s="34">
         <v>222</v>
       </c>
       <c r="E40" t="s" s="33">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" ht="23" customHeight="1">
@@ -4960,13 +4870,13 @@
         <v>3</v>
       </c>
       <c r="C41" t="s" s="33">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D41" s="34">
         <v>200</v>
       </c>
       <c r="E41" t="s" s="33">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" ht="23" customHeight="1">
@@ -4977,13 +4887,13 @@
         <v>3</v>
       </c>
       <c r="C42" t="s" s="33">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D42" s="34">
         <v>200</v>
       </c>
       <c r="E42" t="s" s="33">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" ht="23" customHeight="1">
@@ -4994,13 +4904,13 @@
         <v>3</v>
       </c>
       <c r="C43" t="s" s="33">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D43" s="34">
         <v>200</v>
       </c>
       <c r="E43" t="s" s="33">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" ht="23" customHeight="1">
@@ -5018,13 +4928,13 @@
         <v>2</v>
       </c>
       <c r="C45" t="s" s="33">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D45" s="34">
         <v>1</v>
       </c>
       <c r="E45" t="s" s="33">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" ht="23" customHeight="1">
@@ -5035,13 +4945,13 @@
         <v>3</v>
       </c>
       <c r="C46" t="s" s="33">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D46" s="34">
         <v>300</v>
       </c>
       <c r="E46" t="s" s="33">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" ht="23" customHeight="1">
@@ -5052,13 +4962,13 @@
         <v>4</v>
       </c>
       <c r="C47" t="s" s="33">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D47" s="34">
         <v>301</v>
       </c>
       <c r="E47" t="s" s="33">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" ht="23" customHeight="1">
@@ -5069,13 +4979,13 @@
         <v>4</v>
       </c>
       <c r="C48" t="s" s="33">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D48" s="34">
         <v>301</v>
       </c>
       <c r="E48" t="s" s="33">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" ht="23" customHeight="1">
@@ -5086,13 +4996,13 @@
         <v>4</v>
       </c>
       <c r="C49" t="s" s="33">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D49" s="34">
         <v>301</v>
       </c>
       <c r="E49" t="s" s="33">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" ht="23" customHeight="1">
@@ -5103,13 +5013,13 @@
         <v>3</v>
       </c>
       <c r="C50" t="s" s="33">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D50" s="34">
         <v>300</v>
       </c>
       <c r="E50" t="s" s="33">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" ht="23" customHeight="1">
@@ -5120,13 +5030,13 @@
         <v>4</v>
       </c>
       <c r="C51" t="s" s="33">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D51" s="34">
         <v>305</v>
       </c>
       <c r="E51" t="s" s="33">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" ht="23" customHeight="1">
@@ -5137,13 +5047,13 @@
         <v>4</v>
       </c>
       <c r="C52" t="s" s="33">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D52" s="34">
         <v>305</v>
       </c>
       <c r="E52" t="s" s="33">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" ht="23" customHeight="1">
@@ -5154,13 +5064,13 @@
         <v>4</v>
       </c>
       <c r="C53" t="s" s="33">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D53" s="34">
         <v>305</v>
       </c>
       <c r="E53" t="s" s="33">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" ht="23" customHeight="1">
@@ -5171,13 +5081,13 @@
         <v>4</v>
       </c>
       <c r="C54" t="s" s="33">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D54" s="34">
         <v>305</v>
       </c>
       <c r="E54" t="s" s="33">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" ht="23" customHeight="1">
@@ -5188,13 +5098,13 @@
         <v>3</v>
       </c>
       <c r="C55" t="s" s="33">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D55" s="34">
         <v>300</v>
       </c>
       <c r="E55" t="s" s="33">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" ht="23" customHeight="1">
@@ -5205,13 +5115,13 @@
         <v>4</v>
       </c>
       <c r="C56" t="s" s="33">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D56" s="34">
         <v>310</v>
       </c>
       <c r="E56" t="s" s="33">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" ht="23" customHeight="1">
@@ -5222,13 +5132,13 @@
         <v>4</v>
       </c>
       <c r="C57" t="s" s="33">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D57" s="34">
         <v>310</v>
       </c>
       <c r="E57" t="s" s="33">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" ht="23" customHeight="1">
@@ -5239,13 +5149,13 @@
         <v>4</v>
       </c>
       <c r="C58" t="s" s="33">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D58" s="34">
         <v>310</v>
       </c>
       <c r="E58" t="s" s="33">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" ht="23" customHeight="1">
@@ -5256,13 +5166,13 @@
         <v>4</v>
       </c>
       <c r="C59" t="s" s="33">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D59" s="34">
         <v>310</v>
       </c>
       <c r="E59" t="s" s="33">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" ht="23" customHeight="1">
@@ -5273,13 +5183,13 @@
         <v>4</v>
       </c>
       <c r="C60" t="s" s="33">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D60" s="34">
         <v>310</v>
       </c>
       <c r="E60" t="s" s="33">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" ht="23" customHeight="1">
@@ -5290,13 +5200,13 @@
         <v>3</v>
       </c>
       <c r="C61" t="s" s="33">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D61" s="34">
         <v>300</v>
       </c>
       <c r="E61" t="s" s="33">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" ht="23" customHeight="1">
@@ -5307,13 +5217,13 @@
         <v>4</v>
       </c>
       <c r="C62" t="s" s="33">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D62" s="34">
         <v>316</v>
       </c>
       <c r="E62" t="s" s="33">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" ht="23" customHeight="1">
@@ -5324,13 +5234,13 @@
         <v>4</v>
       </c>
       <c r="C63" t="s" s="33">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D63" s="34">
         <v>316</v>
       </c>
       <c r="E63" t="s" s="33">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" ht="23" customHeight="1">
@@ -5341,13 +5251,13 @@
         <v>4</v>
       </c>
       <c r="C64" t="s" s="33">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D64" s="34">
         <v>316</v>
       </c>
       <c r="E64" t="s" s="33">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" ht="23" customHeight="1">
@@ -5358,13 +5268,13 @@
         <v>3</v>
       </c>
       <c r="C65" t="s" s="33">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D65" s="34">
         <v>300</v>
       </c>
       <c r="E65" t="s" s="33">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" ht="23" customHeight="1">
@@ -5382,13 +5292,13 @@
         <v>2</v>
       </c>
       <c r="C67" t="s" s="33">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D67" s="34">
         <v>1</v>
       </c>
       <c r="E67" t="s" s="33">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" ht="23" customHeight="1">
@@ -5399,7 +5309,7 @@
         <v>3</v>
       </c>
       <c r="C68" t="s" s="33">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D68" s="34">
         <v>400</v>
@@ -5414,7 +5324,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="s" s="33">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D69" s="34">
         <v>400</v>
@@ -5429,7 +5339,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="s" s="33">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D70" s="34">
         <v>402</v>
@@ -5444,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="C71" t="s" s="33">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D71" s="34">
         <v>402</v>
@@ -5459,7 +5369,7 @@
         <v>3</v>
       </c>
       <c r="C72" t="s" s="33">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D72" s="34">
         <v>400</v>
@@ -5474,7 +5384,7 @@
         <v>4</v>
       </c>
       <c r="C73" t="s" s="33">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D73" s="34">
         <v>405</v>
@@ -5489,7 +5399,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="s" s="33">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D74" s="34">
         <v>405</v>
@@ -5504,7 +5414,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="s" s="33">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D75" s="34">
         <v>405</v>
@@ -5519,7 +5429,7 @@
         <v>4</v>
       </c>
       <c r="C76" t="s" s="33">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D76" s="34">
         <v>405</v>
@@ -5534,7 +5444,7 @@
         <v>4</v>
       </c>
       <c r="C77" t="s" s="33">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D77" s="34">
         <v>405</v>
@@ -5549,7 +5459,7 @@
         <v>4</v>
       </c>
       <c r="C78" t="s" s="33">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D78" s="34">
         <v>405</v>
@@ -5564,7 +5474,7 @@
         <v>3</v>
       </c>
       <c r="C79" t="s" s="33">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D79" s="34">
         <v>400</v>
@@ -5579,7 +5489,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="s" s="33">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D80" s="34">
         <v>412</v>
@@ -5594,7 +5504,7 @@
         <v>5</v>
       </c>
       <c r="C81" t="s" s="33">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D81" s="34">
         <v>413</v>
@@ -5609,7 +5519,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s" s="33">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D82" s="34">
         <v>413</v>
@@ -5624,7 +5534,7 @@
         <v>5</v>
       </c>
       <c r="C83" t="s" s="33">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D83" s="34">
         <v>413</v>
@@ -5639,7 +5549,7 @@
         <v>5</v>
       </c>
       <c r="C84" t="s" s="33">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D84" s="34">
         <v>413</v>
@@ -5654,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="s" s="33">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D85" s="34">
         <v>412</v>
@@ -5669,7 +5579,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="s" s="33">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D86" s="34">
         <v>418</v>
@@ -5684,7 +5594,7 @@
         <v>5</v>
       </c>
       <c r="C87" t="s" s="33">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D87" s="34">
         <v>418</v>
@@ -5699,7 +5609,7 @@
         <v>5</v>
       </c>
       <c r="C88" t="s" s="33">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D88" s="34">
         <v>418</v>
@@ -5714,7 +5624,7 @@
         <v>4</v>
       </c>
       <c r="C89" t="s" s="33">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D89" s="34">
         <v>412</v>
@@ -5729,7 +5639,7 @@
         <v>5</v>
       </c>
       <c r="C90" t="s" s="33">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D90" s="34">
         <v>422</v>
@@ -5744,7 +5654,7 @@
         <v>5</v>
       </c>
       <c r="C91" t="s" s="33">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D91" s="34">
         <v>422</v>
@@ -5759,7 +5669,7 @@
         <v>5</v>
       </c>
       <c r="C92" t="s" s="33">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D92" s="34">
         <v>422</v>
@@ -5774,7 +5684,7 @@
         <v>4</v>
       </c>
       <c r="C93" t="s" s="33">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D93" s="34">
         <v>412</v>
@@ -5789,7 +5699,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="s" s="33">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D94" s="34">
         <v>400</v>
@@ -5804,7 +5714,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="s" s="33">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D95" s="34">
         <v>427</v>
@@ -5819,7 +5729,7 @@
         <v>4</v>
       </c>
       <c r="C96" t="s" s="33">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D96" s="34">
         <v>427</v>
@@ -5834,7 +5744,7 @@
         <v>5</v>
       </c>
       <c r="C97" t="s" s="33">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D97" s="34">
         <v>429</v>
@@ -5849,7 +5759,7 @@
         <v>5</v>
       </c>
       <c r="C98" t="s" s="33">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D98" s="34">
         <v>429</v>
@@ -5864,7 +5774,7 @@
         <v>5</v>
       </c>
       <c r="C99" t="s" s="33">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D99" s="34">
         <v>429</v>
@@ -5879,7 +5789,7 @@
         <v>5</v>
       </c>
       <c r="C100" t="s" s="33">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D100" s="34">
         <v>429</v>
@@ -5894,7 +5804,7 @@
         <v>5</v>
       </c>
       <c r="C101" t="s" s="33">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D101" s="34">
         <v>429</v>
@@ -5909,7 +5819,7 @@
         <v>4</v>
       </c>
       <c r="C102" t="s" s="33">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D102" s="34">
         <v>427</v>
@@ -5924,7 +5834,7 @@
         <v>3</v>
       </c>
       <c r="C103" t="s" s="33">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D103" s="34">
         <v>400</v>
@@ -5939,7 +5849,7 @@
         <v>4</v>
       </c>
       <c r="C104" t="s" s="33">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D104" s="34">
         <v>436</v>
@@ -5954,7 +5864,7 @@
         <v>4</v>
       </c>
       <c r="C105" t="s" s="33">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D105" s="34">
         <v>436</v>
@@ -5969,7 +5879,7 @@
         <v>4</v>
       </c>
       <c r="C106" t="s" s="33">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D106" s="34">
         <v>436</v>
@@ -5984,7 +5894,7 @@
         <v>4</v>
       </c>
       <c r="C107" t="s" s="33">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D107" s="34">
         <v>436</v>
@@ -5999,7 +5909,7 @@
         <v>3</v>
       </c>
       <c r="C108" t="s" s="33">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D108" s="34">
         <v>400</v>
@@ -6014,7 +5924,7 @@
         <v>4</v>
       </c>
       <c r="C109" t="s" s="33">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D109" s="34">
         <v>441</v>
@@ -6029,7 +5939,7 @@
         <v>4</v>
       </c>
       <c r="C110" t="s" s="33">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D110" s="34">
         <v>441</v>
@@ -6044,7 +5954,7 @@
         <v>4</v>
       </c>
       <c r="C111" t="s" s="33">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D111" s="34">
         <v>441</v>
@@ -6059,7 +5969,7 @@
         <v>3</v>
       </c>
       <c r="C112" t="s" s="33">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D112" s="34">
         <v>400</v>
@@ -6074,7 +5984,7 @@
         <v>4</v>
       </c>
       <c r="C113" t="s" s="33">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D113" s="34">
         <v>445</v>
@@ -6089,7 +5999,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="s" s="33">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D114" s="34">
         <v>445</v>
@@ -6104,7 +6014,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="s" s="33">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D115" s="34">
         <v>445</v>
@@ -6119,7 +6029,7 @@
         <v>3</v>
       </c>
       <c r="C116" t="s" s="33">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D116" s="34">
         <v>400</v>
@@ -6134,7 +6044,7 @@
         <v>4</v>
       </c>
       <c r="C117" t="s" s="33">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D117" s="34">
         <v>449</v>
@@ -6149,7 +6059,7 @@
         <v>4</v>
       </c>
       <c r="C118" t="s" s="33">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D118" s="34">
         <v>449</v>
@@ -6164,7 +6074,7 @@
         <v>4</v>
       </c>
       <c r="C119" t="s" s="33">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D119" s="34">
         <v>449</v>
@@ -6179,7 +6089,7 @@
         <v>3</v>
       </c>
       <c r="C120" t="s" s="33">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D120" s="34">
         <v>400</v>
@@ -6194,7 +6104,7 @@
         <v>4</v>
       </c>
       <c r="C121" t="s" s="33">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D121" s="34">
         <v>453</v>
@@ -6209,7 +6119,7 @@
         <v>4</v>
       </c>
       <c r="C122" t="s" s="33">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D122" s="34">
         <v>453</v>
@@ -6224,7 +6134,7 @@
         <v>4</v>
       </c>
       <c r="C123" t="s" s="33">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D123" s="34">
         <v>453</v>
@@ -6239,7 +6149,7 @@
         <v>4</v>
       </c>
       <c r="C124" t="s" s="33">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D124" s="34">
         <v>453</v>
@@ -6261,13 +6171,13 @@
         <v>2</v>
       </c>
       <c r="C126" t="s" s="33">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D126" s="34">
         <v>1</v>
       </c>
       <c r="E126" t="s" s="33">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127" ht="23" customHeight="1">
@@ -6278,7 +6188,7 @@
         <v>3</v>
       </c>
       <c r="C127" t="s" s="33">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D127" s="34">
         <v>500</v>
@@ -6293,7 +6203,7 @@
         <v>3</v>
       </c>
       <c r="C128" t="s" s="33">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D128" s="34">
         <v>500</v>
@@ -6308,7 +6218,7 @@
         <v>4</v>
       </c>
       <c r="C129" t="s" s="33">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D129" s="34">
         <v>502</v>
@@ -6323,7 +6233,7 @@
         <v>4</v>
       </c>
       <c r="C130" t="s" s="33">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D130" s="34">
         <v>502</v>
@@ -6338,7 +6248,7 @@
         <v>3</v>
       </c>
       <c r="C131" t="s" s="33">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D131" s="34">
         <v>500</v>
@@ -6353,7 +6263,7 @@
         <v>4</v>
       </c>
       <c r="C132" t="s" s="33">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D132" s="34">
         <v>505</v>
@@ -6368,7 +6278,7 @@
         <v>4</v>
       </c>
       <c r="C133" t="s" s="33">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D133" s="34">
         <v>505</v>
@@ -6383,7 +6293,7 @@
         <v>4</v>
       </c>
       <c r="C134" t="s" s="33">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D134" s="34">
         <v>505</v>
@@ -6398,7 +6308,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="s" s="33">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D135" s="34">
         <v>505</v>
@@ -6413,7 +6323,7 @@
         <v>3</v>
       </c>
       <c r="C136" t="s" s="33">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D136" s="34">
         <v>500</v>
@@ -6428,7 +6338,7 @@
         <v>4</v>
       </c>
       <c r="C137" t="s" s="33">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D137" s="34">
         <v>510</v>
@@ -6443,7 +6353,7 @@
         <v>4</v>
       </c>
       <c r="C138" t="s" s="33">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D138" s="34">
         <v>510</v>
@@ -6458,7 +6368,7 @@
         <v>3</v>
       </c>
       <c r="C139" t="s" s="33">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D139" s="34">
         <v>500</v>
@@ -6480,13 +6390,13 @@
         <v>2</v>
       </c>
       <c r="C141" t="s" s="33">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D141" s="34">
         <v>1</v>
       </c>
       <c r="E141" t="s" s="33">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="142" ht="23" customHeight="1">
@@ -6497,7 +6407,7 @@
         <v>3</v>
       </c>
       <c r="C142" t="s" s="33">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D142" s="34">
         <v>600</v>
@@ -6512,7 +6422,7 @@
         <v>3</v>
       </c>
       <c r="C143" t="s" s="33">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D143" s="34">
         <v>600</v>
@@ -6527,7 +6437,7 @@
         <v>4</v>
       </c>
       <c r="C144" t="s" s="33">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D144" s="34">
         <v>602</v>
@@ -6542,7 +6452,7 @@
         <v>4</v>
       </c>
       <c r="C145" t="s" s="33">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D145" s="34">
         <v>602</v>
@@ -6557,7 +6467,7 @@
         <v>4</v>
       </c>
       <c r="C146" t="s" s="33">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D146" s="34">
         <v>602</v>
@@ -6572,7 +6482,7 @@
         <v>4</v>
       </c>
       <c r="C147" t="s" s="33">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D147" s="34">
         <v>602</v>
@@ -6587,7 +6497,7 @@
         <v>3</v>
       </c>
       <c r="C148" t="s" s="33">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D148" s="34">
         <v>600</v>
@@ -6602,7 +6512,7 @@
         <v>4</v>
       </c>
       <c r="C149" t="s" s="33">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D149" s="34">
         <v>607</v>
@@ -6617,7 +6527,7 @@
         <v>4</v>
       </c>
       <c r="C150" t="s" s="33">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D150" s="34">
         <v>607</v>
@@ -6632,7 +6542,7 @@
         <v>4</v>
       </c>
       <c r="C151" t="s" s="33">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D151" s="34">
         <v>607</v>
@@ -6647,7 +6557,7 @@
         <v>4</v>
       </c>
       <c r="C152" t="s" s="33">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D152" s="34">
         <v>607</v>
@@ -6662,7 +6572,7 @@
         <v>3</v>
       </c>
       <c r="C153" t="s" s="33">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D153" s="34">
         <v>600</v>
@@ -6677,7 +6587,7 @@
         <v>4</v>
       </c>
       <c r="C154" t="s" s="33">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D154" s="34">
         <v>612</v>
@@ -6692,7 +6602,7 @@
         <v>4</v>
       </c>
       <c r="C155" t="s" s="33">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D155" s="34">
         <v>612</v>
@@ -6707,7 +6617,7 @@
         <v>4</v>
       </c>
       <c r="C156" t="s" s="33">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D156" s="34">
         <v>612</v>
@@ -6722,7 +6632,7 @@
         <v>3</v>
       </c>
       <c r="C157" t="s" s="33">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D157" s="34">
         <v>600</v>
@@ -6737,7 +6647,7 @@
         <v>4</v>
       </c>
       <c r="C158" t="s" s="33">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D158" s="34">
         <v>616</v>
@@ -6752,7 +6662,7 @@
         <v>4</v>
       </c>
       <c r="C159" t="s" s="33">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D159" s="34">
         <v>616</v>
@@ -6767,7 +6677,7 @@
         <v>4</v>
       </c>
       <c r="C160" t="s" s="33">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D160" s="34">
         <v>616</v>
@@ -6782,7 +6692,7 @@
         <v>4</v>
       </c>
       <c r="C161" t="s" s="33">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D161" s="34">
         <v>616</v>
@@ -6797,7 +6707,7 @@
         <v>4</v>
       </c>
       <c r="C162" t="s" s="33">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D162" s="34">
         <v>616</v>
@@ -6812,7 +6722,7 @@
         <v>3</v>
       </c>
       <c r="C163" t="s" s="33">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D163" s="34">
         <v>600</v>
@@ -6834,13 +6744,13 @@
         <v>2</v>
       </c>
       <c r="C165" t="s" s="33">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D165" s="34">
         <v>1</v>
       </c>
       <c r="E165" t="s" s="33">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="166" ht="23" customHeight="1">
@@ -6851,7 +6761,7 @@
         <v>3</v>
       </c>
       <c r="C166" t="s" s="33">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D166" s="34">
         <v>700</v>
@@ -6866,7 +6776,7 @@
         <v>3</v>
       </c>
       <c r="C167" t="s" s="33">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D167" s="34">
         <v>700</v>
@@ -6881,7 +6791,7 @@
         <v>4</v>
       </c>
       <c r="C168" t="s" s="33">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D168" s="34">
         <v>702</v>
@@ -6896,7 +6806,7 @@
         <v>4</v>
       </c>
       <c r="C169" t="s" s="33">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D169" s="34">
         <v>702</v>
@@ -6911,7 +6821,7 @@
         <v>4</v>
       </c>
       <c r="C170" t="s" s="33">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D170" s="34">
         <v>702</v>
@@ -6926,7 +6836,7 @@
         <v>3</v>
       </c>
       <c r="C171" t="s" s="33">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D171" s="34">
         <v>700</v>
@@ -6941,7 +6851,7 @@
         <v>4</v>
       </c>
       <c r="C172" t="s" s="33">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D172" s="34">
         <v>706</v>
@@ -6956,7 +6866,7 @@
         <v>4</v>
       </c>
       <c r="C173" t="s" s="33">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D173" s="34">
         <v>706</v>
@@ -6971,7 +6881,7 @@
         <v>4</v>
       </c>
       <c r="C174" t="s" s="33">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D174" s="34">
         <v>706</v>
@@ -6986,7 +6896,7 @@
         <v>3</v>
       </c>
       <c r="C175" t="s" s="33">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D175" s="34">
         <v>700</v>
@@ -7001,7 +6911,7 @@
         <v>4</v>
       </c>
       <c r="C176" t="s" s="33">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D176" s="34">
         <v>710</v>
@@ -7016,7 +6926,7 @@
         <v>4</v>
       </c>
       <c r="C177" t="s" s="33">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D177" s="34">
         <v>710</v>
@@ -7031,7 +6941,7 @@
         <v>4</v>
       </c>
       <c r="C178" t="s" s="33">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D178" s="34">
         <v>710</v>
@@ -7046,7 +6956,7 @@
         <v>3</v>
       </c>
       <c r="C179" t="s" s="33">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D179" s="34">
         <v>700</v>
@@ -7061,7 +6971,7 @@
         <v>4</v>
       </c>
       <c r="C180" t="s" s="33">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D180" s="34">
         <v>714</v>
@@ -7076,7 +6986,7 @@
         <v>4</v>
       </c>
       <c r="C181" t="s" s="33">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D181" s="34">
         <v>714</v>
@@ -7091,7 +7001,7 @@
         <v>4</v>
       </c>
       <c r="C182" t="s" s="33">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D182" s="34">
         <v>714</v>
@@ -7106,7 +7016,7 @@
         <v>3</v>
       </c>
       <c r="C183" t="s" s="33">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D183" s="34">
         <v>700</v>
@@ -7121,7 +7031,7 @@
         <v>4</v>
       </c>
       <c r="C184" t="s" s="33">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D184" s="34">
         <v>718</v>
@@ -7136,7 +7046,7 @@
         <v>4</v>
       </c>
       <c r="C185" t="s" s="33">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D185" s="34">
         <v>718</v>
@@ -7151,7 +7061,7 @@
         <v>4</v>
       </c>
       <c r="C186" t="s" s="33">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D186" s="34">
         <v>718</v>
@@ -7166,7 +7076,7 @@
         <v>4</v>
       </c>
       <c r="C187" t="s" s="33">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D187" s="34">
         <v>718</v>
@@ -7181,7 +7091,7 @@
         <v>3</v>
       </c>
       <c r="C188" t="s" s="33">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D188" s="34">
         <v>700</v>
@@ -7196,7 +7106,7 @@
         <v>3</v>
       </c>
       <c r="C189" t="s" s="33">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D189" s="34">
         <v>700</v>
@@ -7218,13 +7128,13 @@
         <v>2</v>
       </c>
       <c r="C191" t="s" s="33">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D191" s="34">
         <v>1</v>
       </c>
       <c r="E191" t="s" s="33">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="192" ht="23" customHeight="1">
@@ -7235,7 +7145,7 @@
         <v>3</v>
       </c>
       <c r="C192" t="s" s="33">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D192" s="34">
         <v>800</v>
@@ -7250,7 +7160,7 @@
         <v>3</v>
       </c>
       <c r="C193" t="s" s="33">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D193" s="34">
         <v>800</v>
@@ -7265,7 +7175,7 @@
         <v>4</v>
       </c>
       <c r="C194" t="s" s="33">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D194" s="34">
         <v>802</v>
@@ -7280,7 +7190,7 @@
         <v>4</v>
       </c>
       <c r="C195" t="s" s="33">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D195" s="34">
         <v>802</v>
@@ -7295,7 +7205,7 @@
         <v>3</v>
       </c>
       <c r="C196" t="s" s="33">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D196" s="34">
         <v>800</v>
@@ -7310,7 +7220,7 @@
         <v>4</v>
       </c>
       <c r="C197" t="s" s="33">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D197" s="34">
         <v>805</v>
@@ -7325,7 +7235,7 @@
         <v>4</v>
       </c>
       <c r="C198" t="s" s="33">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D198" s="34">
         <v>805</v>
@@ -7340,7 +7250,7 @@
         <v>3</v>
       </c>
       <c r="C199" t="s" s="33">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D199" s="34">
         <v>800</v>
@@ -7355,7 +7265,7 @@
         <v>4</v>
       </c>
       <c r="C200" t="s" s="33">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D200" s="34">
         <v>808</v>
@@ -7370,7 +7280,7 @@
         <v>4</v>
       </c>
       <c r="C201" t="s" s="33">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D201" s="34">
         <v>808</v>
@@ -7385,7 +7295,7 @@
         <v>3</v>
       </c>
       <c r="C202" t="s" s="33">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D202" s="34">
         <v>800</v>
@@ -7407,13 +7317,13 @@
         <v>2</v>
       </c>
       <c r="C204" t="s" s="33">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D204" s="34">
         <v>1</v>
       </c>
       <c r="E204" t="s" s="33">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="205" ht="23" customHeight="1">
@@ -7424,7 +7334,7 @@
         <v>3</v>
       </c>
       <c r="C205" t="s" s="33">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D205" s="34">
         <v>900</v>
@@ -7439,7 +7349,7 @@
         <v>4</v>
       </c>
       <c r="C206" t="s" s="33">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D206" s="34">
         <v>901</v>
@@ -7454,7 +7364,7 @@
         <v>4</v>
       </c>
       <c r="C207" t="s" s="33">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D207" s="34">
         <v>901</v>
@@ -7469,7 +7379,7 @@
         <v>4</v>
       </c>
       <c r="C208" t="s" s="33">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D208" s="34">
         <v>901</v>
@@ -7484,7 +7394,7 @@
         <v>4</v>
       </c>
       <c r="C209" t="s" s="33">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D209" s="34">
         <v>901</v>
@@ -7499,7 +7409,7 @@
         <v>4</v>
       </c>
       <c r="C210" t="s" s="33">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D210" s="34">
         <v>901</v>
@@ -7514,7 +7424,7 @@
         <v>4</v>
       </c>
       <c r="C211" t="s" s="33">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D211" s="34">
         <v>901</v>
@@ -7529,7 +7439,7 @@
         <v>3</v>
       </c>
       <c r="C212" t="s" s="33">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D212" s="34">
         <v>900</v>
@@ -7544,7 +7454,7 @@
         <v>4</v>
       </c>
       <c r="C213" t="s" s="33">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D213" s="34">
         <v>908</v>
@@ -7559,7 +7469,7 @@
         <v>4</v>
       </c>
       <c r="C214" t="s" s="33">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D214" s="34">
         <v>908</v>
@@ -7574,7 +7484,7 @@
         <v>4</v>
       </c>
       <c r="C215" t="s" s="33">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D215" s="34">
         <v>908</v>
@@ -7589,7 +7499,7 @@
         <v>4</v>
       </c>
       <c r="C216" t="s" s="33">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D216" s="34">
         <v>908</v>
@@ -7604,7 +7514,7 @@
         <v>4</v>
       </c>
       <c r="C217" t="s" s="33">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D217" s="34">
         <v>908</v>
@@ -7619,7 +7529,7 @@
         <v>4</v>
       </c>
       <c r="C218" t="s" s="33">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D218" s="34">
         <v>908</v>
@@ -7634,7 +7544,7 @@
         <v>4</v>
       </c>
       <c r="C219" t="s" s="33">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D219" s="34">
         <v>908</v>
@@ -7649,7 +7559,7 @@
         <v>4</v>
       </c>
       <c r="C220" t="s" s="33">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D220" s="34">
         <v>908</v>
@@ -7664,7 +7574,7 @@
         <v>3</v>
       </c>
       <c r="C221" t="s" s="33">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D221" s="34">
         <v>900</v>
@@ -7679,7 +7589,7 @@
         <v>4</v>
       </c>
       <c r="C222" t="s" s="33">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D222" s="34">
         <v>917</v>
@@ -7701,13 +7611,13 @@
         <v>2</v>
       </c>
       <c r="C224" t="s" s="33">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D224" s="34">
         <v>1</v>
       </c>
       <c r="E224" t="s" s="33">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="225" ht="23" customHeight="1">
@@ -7718,7 +7628,7 @@
         <v>3</v>
       </c>
       <c r="C225" t="s" s="33">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D225" s="34">
         <v>1000</v>
@@ -7733,7 +7643,7 @@
         <v>3</v>
       </c>
       <c r="C226" t="s" s="33">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D226" s="34">
         <v>1000</v>
@@ -7748,7 +7658,7 @@
         <v>4</v>
       </c>
       <c r="C227" t="s" s="33">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D227" s="34">
         <v>1002</v>
@@ -7763,7 +7673,7 @@
         <v>4</v>
       </c>
       <c r="C228" t="s" s="33">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D228" s="34">
         <v>1002</v>
@@ -7778,7 +7688,7 @@
         <v>4</v>
       </c>
       <c r="C229" t="s" s="33">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D229" s="34">
         <v>1002</v>
@@ -7793,7 +7703,7 @@
         <v>3</v>
       </c>
       <c r="C230" t="s" s="33">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D230" s="34">
         <v>1000</v>
@@ -7808,7 +7718,7 @@
         <v>4</v>
       </c>
       <c r="C231" t="s" s="33">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D231" s="34">
         <v>1006</v>
@@ -7823,7 +7733,7 @@
         <v>4</v>
       </c>
       <c r="C232" t="s" s="33">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D232" s="34">
         <v>1006</v>
@@ -7838,7 +7748,7 @@
         <v>4</v>
       </c>
       <c r="C233" t="s" s="33">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D233" s="34">
         <v>1006</v>
@@ -7853,7 +7763,7 @@
         <v>4</v>
       </c>
       <c r="C234" t="s" s="33">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D234" s="34">
         <v>1006</v>
@@ -7868,7 +7778,7 @@
         <v>3</v>
       </c>
       <c r="C235" t="s" s="33">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D235" s="34">
         <v>1000</v>
@@ -7883,7 +7793,7 @@
         <v>3</v>
       </c>
       <c r="C236" t="s" s="33">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D236" s="34">
         <v>1000</v>
@@ -7905,7 +7815,7 @@
         <v>2</v>
       </c>
       <c r="C238" t="s" s="33">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D238" s="34">
         <v>1</v>
@@ -7920,7 +7830,7 @@
         <v>3</v>
       </c>
       <c r="C239" t="s" s="33">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D239" s="34">
         <v>1100</v>
@@ -7935,7 +7845,7 @@
         <v>4</v>
       </c>
       <c r="C240" t="s" s="33">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D240" s="34">
         <v>1101</v>
@@ -7950,7 +7860,7 @@
         <v>3</v>
       </c>
       <c r="C241" t="s" s="33">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D241" s="34">
         <v>1100</v>
@@ -7972,7 +7882,7 @@
         <v>2</v>
       </c>
       <c r="C243" t="s" s="33">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D243" s="34">
         <v>1</v>
@@ -7987,7 +7897,7 @@
         <v>3</v>
       </c>
       <c r="C244" t="s" s="33">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D244" s="34">
         <v>1200</v>
@@ -8002,7 +7912,7 @@
         <v>4</v>
       </c>
       <c r="C245" t="s" s="33">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D245" s="34">
         <v>1201</v>
@@ -8017,7 +7927,7 @@
         <v>3</v>
       </c>
       <c r="C246" t="s" s="33">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D246" s="34">
         <v>1200</v>
@@ -8034,982 +7944,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="16.3516" style="38" customWidth="1"/>
-    <col min="2" max="2" width="53.1719" style="38" customWidth="1"/>
-    <col min="3" max="3" width="16.1719" style="38" customWidth="1"/>
-    <col min="4" max="4" width="53" style="38" customWidth="1"/>
-    <col min="5" max="5" width="22" style="38" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="38" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="38" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s" s="39">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s" s="39">
-        <v>459</v>
-      </c>
-      <c r="D2" t="s" s="39">
-        <v>460</v>
-      </c>
-      <c r="E2" t="s" s="39">
-        <v>461</v>
-      </c>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>462</v>
-      </c>
-      <c r="B3" t="s" s="40">
-        <v>463</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="10">
-        <v>464</v>
-      </c>
-      <c r="B4" t="s" s="42">
-        <v>354</v>
-      </c>
-      <c r="C4" t="s" s="43">
-        <v>355</v>
-      </c>
-      <c r="D4" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="10">
-        <v>464</v>
-      </c>
-      <c r="B5" t="s" s="42">
-        <v>180</v>
-      </c>
-      <c r="C5" t="s" s="43">
-        <v>181</v>
-      </c>
-      <c r="D5" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="10">
-        <v>464</v>
-      </c>
-      <c r="B6" t="s" s="42">
-        <v>465</v>
-      </c>
-      <c r="C6" t="s" s="43">
-        <v>466</v>
-      </c>
-      <c r="D6" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="10">
-        <v>464</v>
-      </c>
-      <c r="B7" t="s" s="42">
-        <v>451</v>
-      </c>
-      <c r="C7" t="s" s="43">
-        <v>467</v>
-      </c>
-      <c r="D7" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="10">
-        <v>464</v>
-      </c>
-      <c r="B8" t="s" s="42">
-        <v>455</v>
-      </c>
-      <c r="C8" t="s" s="43">
-        <v>468</v>
-      </c>
-      <c r="D8" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="10">
-        <v>464</v>
-      </c>
-      <c r="B9" t="s" s="42">
-        <v>280</v>
-      </c>
-      <c r="C9" t="s" s="43">
-        <v>281</v>
-      </c>
-      <c r="D9" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="10">
-        <v>464</v>
-      </c>
-      <c r="B10" t="s" s="42">
-        <v>339</v>
-      </c>
-      <c r="C10" t="s" s="43">
-        <v>340</v>
-      </c>
-      <c r="D10" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="10">
-        <v>464</v>
-      </c>
-      <c r="B11" t="s" s="42">
-        <v>238</v>
-      </c>
-      <c r="C11" t="s" s="43">
-        <v>239</v>
-      </c>
-      <c r="D11" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="10">
-        <v>464</v>
-      </c>
-      <c r="B12" t="s" s="42">
-        <v>404</v>
-      </c>
-      <c r="C12" t="s" s="43">
-        <v>405</v>
-      </c>
-      <c r="D12" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="10">
-        <v>464</v>
-      </c>
-      <c r="B13" t="s" s="42">
-        <v>378</v>
-      </c>
-      <c r="C13" t="s" s="43">
-        <v>379</v>
-      </c>
-      <c r="D13" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="10">
-        <v>464</v>
-      </c>
-      <c r="B14" t="s" s="42">
-        <v>417</v>
-      </c>
-      <c r="C14" t="s" s="43">
-        <v>418</v>
-      </c>
-      <c r="D14" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="10">
-        <v>464</v>
-      </c>
-      <c r="B15" t="s" s="42">
-        <v>437</v>
-      </c>
-      <c r="C15" t="s" s="43">
-        <v>438</v>
-      </c>
-      <c r="D15" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="10">
-        <v>464</v>
-      </c>
-      <c r="B16" t="s" s="42">
-        <v>469</v>
-      </c>
-      <c r="C16" t="s" s="43">
-        <v>161</v>
-      </c>
-      <c r="D16" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B17" t="s" s="42">
-        <v>471</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" t="s" s="43">
-        <v>469</v>
-      </c>
-      <c r="E17" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B18" t="s" s="42">
-        <v>182</v>
-      </c>
-      <c r="C18" s="43"/>
-      <c r="D18" t="s" s="43">
-        <v>180</v>
-      </c>
-      <c r="E18" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B19" t="s" s="42">
-        <v>240</v>
-      </c>
-      <c r="C19" s="43"/>
-      <c r="D19" t="s" s="43">
-        <v>238</v>
-      </c>
-      <c r="E19" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B20" t="s" s="42">
-        <v>452</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" t="s" s="43">
-        <v>451</v>
-      </c>
-      <c r="E20" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B21" t="s" s="42">
-        <v>454</v>
-      </c>
-      <c r="C21" s="43"/>
-      <c r="D21" t="s" s="43">
-        <v>451</v>
-      </c>
-      <c r="E21" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B22" t="s" s="42">
-        <v>456</v>
-      </c>
-      <c r="C22" s="43"/>
-      <c r="D22" t="s" s="43">
-        <v>455</v>
-      </c>
-      <c r="E22" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B23" t="s" s="42">
-        <v>458</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" t="s" s="43">
-        <v>455</v>
-      </c>
-      <c r="E23" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B24" t="s" s="42">
-        <v>472</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" t="s" s="43">
-        <v>404</v>
-      </c>
-      <c r="E24" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B25" t="s" s="42">
-        <v>184</v>
-      </c>
-      <c r="C25" s="43"/>
-      <c r="D25" t="s" s="43">
-        <v>180</v>
-      </c>
-      <c r="E25" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" ht="31" customHeight="1">
-      <c r="A26" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B26" t="s" s="42">
-        <v>356</v>
-      </c>
-      <c r="C26" s="43"/>
-      <c r="D26" t="s" s="43">
-        <v>354</v>
-      </c>
-      <c r="E26" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B27" t="s" s="42">
-        <v>357</v>
-      </c>
-      <c r="C27" s="43"/>
-      <c r="D27" t="s" s="43">
-        <v>354</v>
-      </c>
-      <c r="E27" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" ht="36.85" customHeight="1">
-      <c r="A28" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B28" t="s" s="42">
-        <v>236</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" t="s" s="43">
-        <v>180</v>
-      </c>
-      <c r="E28" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B29" t="s" s="42">
-        <v>248</v>
-      </c>
-      <c r="C29" s="43"/>
-      <c r="D29" t="s" s="43">
-        <v>238</v>
-      </c>
-      <c r="E29" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B30" t="s" s="42">
-        <v>473</v>
-      </c>
-      <c r="C30" s="43"/>
-      <c r="D30" t="s" s="43">
-        <v>354</v>
-      </c>
-      <c r="E30" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B31" t="s" s="42">
-        <v>474</v>
-      </c>
-      <c r="C31" s="43"/>
-      <c r="D31" t="s" s="43">
-        <v>354</v>
-      </c>
-      <c r="E31" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B32" t="s" s="42">
-        <v>475</v>
-      </c>
-      <c r="C32" s="43"/>
-      <c r="D32" t="s" s="43">
-        <v>180</v>
-      </c>
-      <c r="E32" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B33" t="s" s="42">
-        <v>476</v>
-      </c>
-      <c r="C33" s="43"/>
-      <c r="D33" t="s" s="43">
-        <v>280</v>
-      </c>
-      <c r="E33" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B34" t="s" s="42">
-        <v>283</v>
-      </c>
-      <c r="C34" s="43"/>
-      <c r="D34" t="s" s="43">
-        <v>280</v>
-      </c>
-      <c r="E34" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B35" t="s" s="42">
-        <v>419</v>
-      </c>
-      <c r="C35" s="43"/>
-      <c r="D35" t="s" s="43">
-        <v>417</v>
-      </c>
-      <c r="E35" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B36" t="s" s="42">
-        <v>286</v>
-      </c>
-      <c r="C36" s="43"/>
-      <c r="D36" t="s" s="43">
-        <v>280</v>
-      </c>
-      <c r="E36" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B37" t="s" s="42">
-        <v>371</v>
-      </c>
-      <c r="C37" s="43"/>
-      <c r="D37" t="s" s="43">
-        <v>354</v>
-      </c>
-      <c r="E37" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B38" t="s" s="42">
-        <v>477</v>
-      </c>
-      <c r="C38" s="43"/>
-      <c r="D38" t="s" s="43">
-        <v>238</v>
-      </c>
-      <c r="E38" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B39" t="s" s="42">
-        <v>341</v>
-      </c>
-      <c r="C39" s="43"/>
-      <c r="D39" t="s" s="43">
-        <v>339</v>
-      </c>
-      <c r="E39" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B40" t="s" s="42">
-        <v>168</v>
-      </c>
-      <c r="C40" s="43"/>
-      <c r="D40" t="s" s="43">
-        <v>469</v>
-      </c>
-      <c r="E40" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B41" t="s" s="42">
-        <v>192</v>
-      </c>
-      <c r="C41" s="43"/>
-      <c r="D41" t="s" s="43">
-        <v>180</v>
-      </c>
-      <c r="E41" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B42" t="s" s="42">
-        <v>478</v>
-      </c>
-      <c r="C42" s="43"/>
-      <c r="D42" t="s" s="43">
-        <v>339</v>
-      </c>
-      <c r="E42" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B43" t="s" s="42">
-        <v>345</v>
-      </c>
-      <c r="C43" s="43"/>
-      <c r="D43" t="s" s="43">
-        <v>339</v>
-      </c>
-      <c r="E43" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B44" t="s" s="42">
-        <v>381</v>
-      </c>
-      <c r="C44" s="43"/>
-      <c r="D44" t="s" s="43">
-        <v>378</v>
-      </c>
-      <c r="E44" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B45" t="s" s="42">
-        <v>222</v>
-      </c>
-      <c r="C45" s="43"/>
-      <c r="D45" t="s" s="43">
-        <v>180</v>
-      </c>
-      <c r="E45" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B46" t="s" s="42">
-        <v>278</v>
-      </c>
-      <c r="C46" s="43"/>
-      <c r="D46" t="s" s="43">
-        <v>238</v>
-      </c>
-      <c r="E46" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B47" t="s" s="42">
-        <v>435</v>
-      </c>
-      <c r="C47" s="43"/>
-      <c r="D47" t="s" s="43">
-        <v>417</v>
-      </c>
-      <c r="E47" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B48" t="s" s="42">
-        <v>407</v>
-      </c>
-      <c r="C48" s="43"/>
-      <c r="D48" t="s" s="43">
-        <v>404</v>
-      </c>
-      <c r="E48" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F48" s="13"/>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B49" t="s" s="42">
-        <v>402</v>
-      </c>
-      <c r="C49" s="43"/>
-      <c r="D49" t="s" s="43">
-        <v>378</v>
-      </c>
-      <c r="E49" t="s" s="43">
-        <v>463</v>
-      </c>
-      <c r="F49" s="13"/>
-    </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="B50" t="s" s="42">
-        <v>170</v>
-      </c>
-      <c r="C50" s="43"/>
-      <c r="D50" t="s" s="43">
-        <v>469</v>
-      </c>
-      <c r="E50" s="43"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" t="s" s="42">
-        <v>479</v>
-      </c>
-      <c r="C51" s="43"/>
-      <c r="D51" t="s" s="43">
-        <v>378</v>
-      </c>
-      <c r="E51" s="43"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="10"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="10"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="13"/>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="10">
-        <v>480</v>
-      </c>
-      <c r="B55" t="s" s="42">
-        <v>481</v>
-      </c>
-      <c r="C55" s="43"/>
-      <c r="D55" t="s" s="43">
-        <v>482</v>
-      </c>
-      <c r="E55" t="s" s="43">
-        <v>483</v>
-      </c>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="10">
-        <v>480</v>
-      </c>
-      <c r="B56" t="s" s="42">
-        <v>484</v>
-      </c>
-      <c r="C56" s="43"/>
-      <c r="D56" t="s" s="43">
-        <v>482</v>
-      </c>
-      <c r="E56" t="s" s="43">
-        <v>483</v>
-      </c>
-      <c r="F56" s="13"/>
-    </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" t="s" s="10">
-        <v>480</v>
-      </c>
-      <c r="B57" t="s" s="42">
-        <v>485</v>
-      </c>
-      <c r="C57" s="43"/>
-      <c r="D57" t="s" s="43">
-        <v>482</v>
-      </c>
-      <c r="E57" t="s" s="43">
-        <v>483</v>
-      </c>
-      <c r="F57" s="13"/>
-    </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" t="s" s="10">
-        <v>480</v>
-      </c>
-      <c r="B58" t="s" s="42">
-        <v>486</v>
-      </c>
-      <c r="C58" s="43"/>
-      <c r="D58" t="s" s="43">
-        <v>487</v>
-      </c>
-      <c r="E58" t="s" s="43">
-        <v>483</v>
-      </c>
-      <c r="F58" s="13"/>
-    </row>
-    <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" t="s" s="10">
-        <v>480</v>
-      </c>
-      <c r="B59" t="s" s="42">
-        <v>488</v>
-      </c>
-      <c r="C59" s="43"/>
-      <c r="D59" t="s" s="43">
-        <v>489</v>
-      </c>
-      <c r="E59" t="s" s="43">
-        <v>490</v>
-      </c>
-      <c r="F59" s="13"/>
-    </row>
-    <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" t="s" s="10">
-        <v>480</v>
-      </c>
-      <c r="B60" t="s" s="42">
-        <v>491</v>
-      </c>
-      <c r="C60" s="43"/>
-      <c r="D60" t="s" s="43">
-        <v>489</v>
-      </c>
-      <c r="E60" t="s" s="43">
-        <v>490</v>
-      </c>
-      <c r="F60" s="13"/>
-    </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="10">
-        <v>480</v>
-      </c>
-      <c r="B61" t="s" s="42">
-        <v>492</v>
-      </c>
-      <c r="C61" s="43"/>
-      <c r="D61" t="s" s="43">
-        <v>493</v>
-      </c>
-      <c r="E61" t="s" s="43">
-        <v>483</v>
-      </c>
-      <c r="F61" s="13"/>
-    </row>
-    <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" s="16"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/week_00.xlsx
+++ b/week_00.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="462">
   <si>
     <t>Table 1</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Risk ID</t>
+    <t>Risk_ID</t>
   </si>
   <si>
     <t>Unique identifier for risk</t>
@@ -82,42 +82,84 @@
     <t>“Risk” or “Issue”</t>
   </si>
   <si>
+    <t>Org_Unit_ID</t>
+  </si>
+  <si>
+    <t>Unit ID</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must match ID in Org Structure </t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Risk’s category</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Risk owner</t>
+  </si>
+  <si>
+    <t>Max Length: 50</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Org level this risk belongs to</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Risk priority</t>
+  </si>
+  <si>
+    <t>1 = low, 5 = high</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>Risk velocity</t>
+  </si>
+  <si>
+    <t>1 = low, 3 = high</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Risk magnitude</t>
+  </si>
+  <si>
+    <t>Asset_ID</t>
+  </si>
+  <si>
+    <t>Affected asset ID</t>
+  </si>
+  <si>
+    <t>Mitigation_plan</t>
+  </si>
+  <si>
+    <t>Mitigation Plan</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Org ID</t>
+  </si>
+  <si>
     <t>Org Unit ID</t>
   </si>
   <si>
-    <t>Unit ID</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must match ID in Org Structure </t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Risk’s category</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Risk owner</t>
-  </si>
-  <si>
-    <t>Max Length: 50</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Org ID</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
     <t>Organizational level</t>
   </si>
   <si>
@@ -142,55 +184,16 @@
     <t>Max Length: 20</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Risk priority</t>
-  </si>
-  <si>
-    <t>1 = low, 5 = high</t>
-  </si>
-  <si>
-    <t>Velocity</t>
-  </si>
-  <si>
-    <t>Risk velocity</t>
-  </si>
-  <si>
-    <t>1 = low, 3 = high</t>
-  </si>
-  <si>
-    <t>Magnitude</t>
-  </si>
-  <si>
-    <t>Risk magnitude</t>
-  </si>
-  <si>
-    <t>Mitigation plan</t>
-  </si>
-  <si>
-    <t>Mitigation Plan</t>
-  </si>
-  <si>
-    <t>Asset ID</t>
-  </si>
-  <si>
-    <t>Affected asset ID</t>
-  </si>
-  <si>
-    <t>Asset name</t>
+    <t>Asset_name</t>
   </si>
   <si>
     <t>Affected asset name</t>
   </si>
   <si>
-    <t>Asset Unit ID</t>
-  </si>
-  <si>
     <t>Affected asset owner</t>
   </si>
   <si>
-    <t>Asset value</t>
+    <t>Asset_value</t>
   </si>
   <si>
     <t>Affected asset value</t>
@@ -335,6 +338,9 @@
   </si>
   <si>
     <t>227</t>
+  </si>
+  <si>
+    <t>Mitigation_Plan</t>
   </si>
   <si>
     <t>R01</t>
@@ -2793,7 +2799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2977,21 +2983,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="56.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
+    <row r="10" ht="26.7" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>32</v>
+      </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" ht="27.65" customHeight="1">
+    <row r="11" ht="14.7" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s" s="11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s" s="12">
         <v>24</v>
@@ -2999,18 +3009,22 @@
       <c r="D11" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14">
+        <v>5</v>
+      </c>
       <c r="G11" t="s" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" ht="26.7" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="14.7" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s" s="12">
         <v>24</v>
@@ -3018,41 +3032,45 @@
       <c r="D12" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
       <c r="F12" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s" s="12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" ht="14.7" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s" s="11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s" s="12">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
       <c r="F13" s="14">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" ht="14.7" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s" s="11">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s" s="12">
         <v>10</v>
@@ -3061,17 +3079,17 @@
         <v>11</v>
       </c>
       <c r="E14" s="13"/>
-      <c r="F14" s="14">
-        <v>9999</v>
-      </c>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" ht="32.05" customHeight="1">
+      <c r="F14" s="13"/>
+      <c r="G14" t="s" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="14.7" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s" s="11">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s" s="12">
         <v>10</v>
@@ -3081,36 +3099,22 @@
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="14">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G15" t="s" s="12">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="E16" s="14">
-        <v>1</v>
-      </c>
-      <c r="F16" s="14">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s" s="12">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="56.05" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" ht="27.65" customHeight="1">
       <c r="A17" t="s" s="10">
         <v>45</v>
       </c>
@@ -3123,22 +3127,18 @@
       <c r="D17" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E17" s="14">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14">
-        <v>3</v>
-      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" t="s" s="12">
         <v>47</v>
       </c>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
+    <row r="18" ht="26.7" customHeight="1">
       <c r="A18" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="11">
         <v>48</v>
-      </c>
-      <c r="B18" t="s" s="11">
-        <v>49</v>
       </c>
       <c r="C18" t="s" s="12">
         <v>24</v>
@@ -3146,14 +3146,12 @@
       <c r="D18" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E18" s="14">
-        <v>1</v>
-      </c>
+      <c r="E18" s="13"/>
       <c r="F18" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s" s="12">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
@@ -3167,71 +3165,71 @@
         <v>10</v>
       </c>
       <c r="D19" t="s" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="14">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="A20" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s" s="12">
+        <v>11</v>
+      </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="14">
+        <v>9999</v>
+      </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
+    <row r="21" ht="32.05" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s" s="12">
         <v>10</v>
       </c>
       <c r="D21" t="s" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="F21" s="14">
+        <v>20</v>
+      </c>
       <c r="G21" t="s" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" ht="32.05" customHeight="1">
-      <c r="A22" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s" s="11">
         <v>55</v>
       </c>
-      <c r="C22" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s" s="12">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="14">
-        <v>50</v>
-      </c>
-      <c r="G22" t="s" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" ht="32.05" customHeight="1">
+      <c r="F22" s="13"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s" s="11">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s" s="12">
         <v>10</v>
@@ -3240,50 +3238,72 @@
         <v>11</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="14">
-        <v>50</v>
-      </c>
+      <c r="F23" s="13"/>
       <c r="G23" t="s" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="32.05" customHeight="1">
       <c r="A24" t="s" s="10">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s" s="12">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13"/>
+      <c r="F24" s="14">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" ht="32.05" customHeight="1">
+      <c r="A25" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s" s="11">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" ht="32.05" customHeight="1">
+      <c r="A26" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="E26" s="14">
         <v>0</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F26" s="15">
         <v>100000000</v>
       </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
       <c r="G26" s="13"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
@@ -3321,6 +3341,24 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3362,28 +3400,28 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s" s="5">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s" s="5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="19"/>
     </row>
     <row r="3" ht="32.25" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s" s="20">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="21">
         <v>1000000</v>
@@ -3392,13 +3430,13 @@
     </row>
     <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s" s="12">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="15">
         <v>1500000</v>
@@ -3407,13 +3445,13 @@
     </row>
     <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="12">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="15">
         <v>1350000</v>
@@ -3422,13 +3460,13 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s" s="12">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="15">
         <v>1750000</v>
@@ -3437,13 +3475,13 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s" s="12">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="15">
         <v>850000</v>
@@ -3452,13 +3490,13 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s" s="12">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" s="15">
         <v>5500000</v>
@@ -3467,13 +3505,13 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s" s="12">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="15">
         <v>4500000</v>
@@ -3482,13 +3520,13 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s" s="12">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" s="15">
         <v>4000000</v>
@@ -3497,13 +3535,13 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s" s="12">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" s="15">
         <v>2000000</v>
@@ -3512,13 +3550,13 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s" s="12">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12" s="15">
         <v>500000</v>
@@ -3534,13 +3572,13 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s" s="12">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" s="15">
         <v>600000</v>
@@ -3549,13 +3587,13 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s" s="12">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D15" s="15">
         <v>560000</v>
@@ -3564,13 +3602,13 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s" s="12">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D16" s="15">
         <v>65000</v>
@@ -3579,13 +3617,13 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s" s="12">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D17" s="15">
         <v>275000</v>
@@ -3594,13 +3632,13 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s" s="12">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D18" s="15">
         <v>70000</v>
@@ -3609,13 +3647,13 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s" s="12">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D19" s="15">
         <v>450000</v>
@@ -3689,48 +3727,48 @@
         <v>28</v>
       </c>
       <c r="H2" t="s" s="24">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s" s="24">
         <v>33</v>
       </c>
-      <c r="I2" t="s" s="24">
-        <v>42</v>
-      </c>
       <c r="J2" t="s" s="24">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s" s="24">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s" s="24">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s" s="24">
-        <v>51</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" ht="32.05" customHeight="1">
       <c r="A3" t="s" s="10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s" s="12">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s" s="12">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s" s="12">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s" s="12">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I3" s="14">
         <v>3</v>
@@ -3742,36 +3780,36 @@
         <v>4</v>
       </c>
       <c r="L3" t="s" s="12">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M3" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="10">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s" s="12">
+        <v>113</v>
+      </c>
+      <c r="G4" t="s" s="12">
+        <v>120</v>
+      </c>
+      <c r="H4" t="s" s="12">
         <v>115</v>
-      </c>
-      <c r="B4" t="s" s="11">
-        <v>116</v>
-      </c>
-      <c r="C4" t="s" s="12">
-        <v>117</v>
-      </c>
-      <c r="D4" t="s" s="12">
-        <v>110</v>
-      </c>
-      <c r="E4" t="s" s="12">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s" s="12">
-        <v>111</v>
-      </c>
-      <c r="G4" t="s" s="12">
-        <v>118</v>
-      </c>
-      <c r="H4" t="s" s="12">
-        <v>113</v>
       </c>
       <c r="I4" s="14">
         <v>1</v>
@@ -3783,36 +3821,36 @@
         <v>4</v>
       </c>
       <c r="L4" t="s" s="12">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s" s="12">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s" s="12">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s" s="12">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s" s="12">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H5" t="s" s="12">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I5" s="14">
         <v>1</v>
@@ -3824,36 +3862,36 @@
         <v>3</v>
       </c>
       <c r="L5" t="s" s="12">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" ht="32.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s" s="12">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s" s="12">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s" s="12">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s" s="12">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H6" t="s" s="12">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I6" s="14">
         <v>2</v>
@@ -3865,36 +3903,36 @@
         <v>1</v>
       </c>
       <c r="L6" t="s" s="12">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" ht="32.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s" s="12">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s" s="12">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s" s="12">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s" s="12">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H7" t="s" s="12">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I7" s="14">
         <v>2</v>
@@ -3906,36 +3944,36 @@
         <v>3</v>
       </c>
       <c r="L7" t="s" s="12">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" ht="32.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s" s="11">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>137</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s" s="12">
+        <v>124</v>
+      </c>
+      <c r="G8" t="s" s="12">
         <v>134</v>
       </c>
-      <c r="C8" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="D8" t="s" s="12">
-        <v>110</v>
-      </c>
-      <c r="E8" t="s" s="12">
-        <v>77</v>
-      </c>
-      <c r="F8" t="s" s="12">
-        <v>122</v>
-      </c>
-      <c r="G8" t="s" s="12">
-        <v>132</v>
-      </c>
       <c r="H8" t="s" s="12">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I8" s="14">
         <v>1</v>
@@ -3947,36 +3985,36 @@
         <v>4</v>
       </c>
       <c r="L8" t="s" s="12">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M8" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s" s="12">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s" s="12">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s" s="12">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G9" t="s" s="12">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H9" t="s" s="12">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I9" s="14">
         <v>1</v>
@@ -3988,36 +4026,36 @@
         <v>3</v>
       </c>
       <c r="L9" t="s" s="12">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" ht="32.05" customHeight="1">
       <c r="A10" t="s" s="10">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s" s="12">
+        <v>146</v>
+      </c>
+      <c r="D10" t="s" s="12">
+        <v>112</v>
+      </c>
+      <c r="E10" t="s" s="12">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s" s="12">
         <v>142</v>
       </c>
-      <c r="B10" t="s" s="11">
-        <v>143</v>
-      </c>
-      <c r="C10" t="s" s="12">
-        <v>144</v>
-      </c>
-      <c r="D10" t="s" s="12">
-        <v>110</v>
-      </c>
-      <c r="E10" t="s" s="12">
-        <v>91</v>
-      </c>
-      <c r="F10" t="s" s="12">
-        <v>140</v>
-      </c>
       <c r="G10" t="s" s="12">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H10" t="s" s="12">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I10" s="14">
         <v>2</v>
@@ -4029,36 +4067,36 @@
         <v>2</v>
       </c>
       <c r="L10" t="s" s="12">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M10" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s" s="12">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s" s="12">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s" s="12">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s" s="12">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s" s="12">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I11" s="14">
         <v>3</v>
@@ -4070,36 +4108,36 @@
         <v>4</v>
       </c>
       <c r="L11" t="s" s="12">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M11" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" ht="32.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s" s="12">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s" s="12">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s" s="12">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s" s="12">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H12" t="s" s="12">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I12" s="14">
         <v>5</v>
@@ -4111,36 +4149,36 @@
         <v>3</v>
       </c>
       <c r="L12" t="s" s="12">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M12" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" ht="32.05" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s" s="12">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s" s="12">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s" s="12">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s" s="12">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H13" t="s" s="12">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I13" s="14">
         <v>3</v>
@@ -4152,10 +4190,10 @@
         <v>2</v>
       </c>
       <c r="L13" t="s" s="12">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M13" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" ht="32.05" customHeight="1">
@@ -4206,7 +4244,7 @@
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4215,19 +4253,19 @@
     </row>
     <row r="2" ht="23.2" customHeight="1">
       <c r="A2" t="s" s="26">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s" s="26">
         <v>31</v>
       </c>
-      <c r="B2" t="s" s="26">
-        <v>33</v>
-      </c>
       <c r="C2" t="s" s="26">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s" s="26">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s" s="26">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" ht="23.2" customHeight="1">
@@ -4238,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s" s="29">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
@@ -4251,13 +4289,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s" s="33">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" t="s" s="33">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" ht="23" customHeight="1">
@@ -4268,13 +4306,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="33">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D5" s="34">
         <v>100</v>
       </c>
       <c r="E5" t="s" s="33">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" ht="23" customHeight="1">
@@ -4285,13 +4323,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s" s="33">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D6" s="34">
         <v>101</v>
       </c>
       <c r="E6" t="s" s="33">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" ht="23" customHeight="1">
@@ -4302,13 +4340,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s" s="33">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D7" s="34">
         <v>101</v>
       </c>
       <c r="E7" t="s" s="33">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" ht="23" customHeight="1">
@@ -4319,13 +4357,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s" s="33">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D8" s="34">
         <v>100</v>
       </c>
       <c r="E8" t="s" s="33">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" ht="23" customHeight="1">
@@ -4336,13 +4374,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s" s="33">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D9" s="34">
         <v>100</v>
       </c>
       <c r="E9" t="s" s="33">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" ht="23" customHeight="1">
@@ -4353,13 +4391,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s" s="33">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D10" s="34">
         <v>100</v>
       </c>
       <c r="E10" t="s" s="33">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" ht="23" customHeight="1">
@@ -4370,13 +4408,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s" s="33">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D11" s="34">
         <v>106</v>
       </c>
       <c r="E11" t="s" s="33">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" ht="23" customHeight="1">
@@ -4387,13 +4425,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s" s="33">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D12" s="34">
         <v>106</v>
       </c>
       <c r="E12" t="s" s="33">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" ht="23" customHeight="1">
@@ -4404,13 +4442,13 @@
         <v>3</v>
       </c>
       <c r="C13" t="s" s="33">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D13" s="34">
         <v>100</v>
       </c>
       <c r="E13" t="s" s="33">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" ht="23" customHeight="1">
@@ -4428,13 +4466,13 @@
         <v>2</v>
       </c>
       <c r="C15" t="s" s="33">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D15" s="34">
         <v>1</v>
       </c>
       <c r="E15" t="s" s="33">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" ht="23" customHeight="1">
@@ -4445,13 +4483,13 @@
         <v>3</v>
       </c>
       <c r="C16" t="s" s="33">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D16" s="34">
         <v>200</v>
       </c>
       <c r="E16" t="s" s="33">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" ht="23" customHeight="1">
@@ -4462,13 +4500,13 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="33">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D17" s="34">
         <v>200</v>
       </c>
       <c r="E17" t="s" s="33">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" ht="23" customHeight="1">
@@ -4479,13 +4517,13 @@
         <v>4</v>
       </c>
       <c r="C18" t="s" s="33">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D18" s="34">
         <v>202</v>
       </c>
       <c r="E18" t="s" s="33">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" ht="23" customHeight="1">
@@ -4496,13 +4534,13 @@
         <v>4</v>
       </c>
       <c r="C19" t="s" s="33">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D19" s="34">
         <v>202</v>
       </c>
       <c r="E19" t="s" s="33">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" ht="23" customHeight="1">
@@ -4513,13 +4551,13 @@
         <v>4</v>
       </c>
       <c r="C20" t="s" s="33">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D20" s="34">
         <v>202</v>
       </c>
       <c r="E20" t="s" s="33">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" ht="23" customHeight="1">
@@ -4530,13 +4568,13 @@
         <v>3</v>
       </c>
       <c r="C21" t="s" s="33">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D21" s="34">
         <v>200</v>
       </c>
       <c r="E21" t="s" s="33">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" ht="23" customHeight="1">
@@ -4547,13 +4585,13 @@
         <v>4</v>
       </c>
       <c r="C22" t="s" s="33">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D22" s="34">
         <v>206</v>
       </c>
       <c r="E22" t="s" s="33">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" ht="23" customHeight="1">
@@ -4564,13 +4602,13 @@
         <v>4</v>
       </c>
       <c r="C23" t="s" s="33">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D23" s="34">
         <v>206</v>
       </c>
       <c r="E23" t="s" s="33">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" ht="23" customHeight="1">
@@ -4581,13 +4619,13 @@
         <v>4</v>
       </c>
       <c r="C24" t="s" s="33">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D24" s="34">
         <v>206</v>
       </c>
       <c r="E24" t="s" s="33">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" ht="23" customHeight="1">
@@ -4598,13 +4636,13 @@
         <v>3</v>
       </c>
       <c r="C25" t="s" s="33">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D25" s="34">
         <v>200</v>
       </c>
       <c r="E25" t="s" s="33">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" ht="23" customHeight="1">
@@ -4615,13 +4653,13 @@
         <v>4</v>
       </c>
       <c r="C26" t="s" s="33">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D26" s="34">
         <v>210</v>
       </c>
       <c r="E26" t="s" s="33">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" ht="23" customHeight="1">
@@ -4632,13 +4670,13 @@
         <v>4</v>
       </c>
       <c r="C27" t="s" s="33">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D27" s="34">
         <v>210</v>
       </c>
       <c r="E27" t="s" s="33">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" ht="23" customHeight="1">
@@ -4649,13 +4687,13 @@
         <v>3</v>
       </c>
       <c r="C28" t="s" s="33">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D28" s="34">
         <v>200</v>
       </c>
       <c r="E28" t="s" s="33">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" ht="23" customHeight="1">
@@ -4666,13 +4704,13 @@
         <v>4</v>
       </c>
       <c r="C29" t="s" s="33">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D29" s="34">
         <v>213</v>
       </c>
       <c r="E29" t="s" s="33">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" ht="23" customHeight="1">
@@ -4683,13 +4721,13 @@
         <v>4</v>
       </c>
       <c r="C30" t="s" s="33">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D30" s="34">
         <v>213</v>
       </c>
       <c r="E30" t="s" s="33">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" ht="23" customHeight="1">
@@ -4700,13 +4738,13 @@
         <v>3</v>
       </c>
       <c r="C31" t="s" s="33">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D31" s="34">
         <v>200</v>
       </c>
       <c r="E31" t="s" s="33">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" ht="23" customHeight="1">
@@ -4717,13 +4755,13 @@
         <v>4</v>
       </c>
       <c r="C32" t="s" s="33">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D32" s="34">
         <v>216</v>
       </c>
       <c r="E32" t="s" s="33">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" ht="23" customHeight="1">
@@ -4734,13 +4772,13 @@
         <v>4</v>
       </c>
       <c r="C33" t="s" s="33">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D33" s="34">
         <v>216</v>
       </c>
       <c r="E33" t="s" s="33">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" ht="23" customHeight="1">
@@ -4751,13 +4789,13 @@
         <v>3</v>
       </c>
       <c r="C34" t="s" s="33">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D34" s="34">
         <v>200</v>
       </c>
       <c r="E34" t="s" s="33">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" ht="23" customHeight="1">
@@ -4768,13 +4806,13 @@
         <v>3</v>
       </c>
       <c r="C35" t="s" s="33">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D35" s="34">
         <v>200</v>
       </c>
       <c r="E35" t="s" s="33">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" ht="23" customHeight="1">
@@ -4785,13 +4823,13 @@
         <v>3</v>
       </c>
       <c r="C36" t="s" s="33">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D36" s="34">
         <v>200</v>
       </c>
       <c r="E36" t="s" s="33">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" ht="23" customHeight="1">
@@ -4802,13 +4840,13 @@
         <v>3</v>
       </c>
       <c r="C37" t="s" s="33">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D37" s="34">
         <v>200</v>
       </c>
       <c r="E37" t="s" s="33">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" ht="23" customHeight="1">
@@ -4819,13 +4857,13 @@
         <v>4</v>
       </c>
       <c r="C38" t="s" s="33">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D38" s="34">
         <v>222</v>
       </c>
       <c r="E38" t="s" s="33">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" ht="23" customHeight="1">
@@ -4836,13 +4874,13 @@
         <v>4</v>
       </c>
       <c r="C39" t="s" s="33">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D39" s="34">
         <v>222</v>
       </c>
       <c r="E39" t="s" s="33">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" ht="23" customHeight="1">
@@ -4853,13 +4891,13 @@
         <v>4</v>
       </c>
       <c r="C40" t="s" s="33">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D40" s="34">
         <v>222</v>
       </c>
       <c r="E40" t="s" s="33">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" ht="23" customHeight="1">
@@ -4870,13 +4908,13 @@
         <v>3</v>
       </c>
       <c r="C41" t="s" s="33">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D41" s="34">
         <v>200</v>
       </c>
       <c r="E41" t="s" s="33">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" ht="23" customHeight="1">
@@ -4887,13 +4925,13 @@
         <v>3</v>
       </c>
       <c r="C42" t="s" s="33">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D42" s="34">
         <v>200</v>
       </c>
       <c r="E42" t="s" s="33">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" ht="23" customHeight="1">
@@ -4904,13 +4942,13 @@
         <v>3</v>
       </c>
       <c r="C43" t="s" s="33">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D43" s="34">
         <v>200</v>
       </c>
       <c r="E43" t="s" s="33">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" ht="23" customHeight="1">
@@ -4928,13 +4966,13 @@
         <v>2</v>
       </c>
       <c r="C45" t="s" s="33">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D45" s="34">
         <v>1</v>
       </c>
       <c r="E45" t="s" s="33">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" ht="23" customHeight="1">
@@ -4945,13 +4983,13 @@
         <v>3</v>
       </c>
       <c r="C46" t="s" s="33">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D46" s="34">
         <v>300</v>
       </c>
       <c r="E46" t="s" s="33">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" ht="23" customHeight="1">
@@ -4962,13 +5000,13 @@
         <v>4</v>
       </c>
       <c r="C47" t="s" s="33">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D47" s="34">
         <v>301</v>
       </c>
       <c r="E47" t="s" s="33">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" ht="23" customHeight="1">
@@ -4979,13 +5017,13 @@
         <v>4</v>
       </c>
       <c r="C48" t="s" s="33">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D48" s="34">
         <v>301</v>
       </c>
       <c r="E48" t="s" s="33">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" ht="23" customHeight="1">
@@ -4996,13 +5034,13 @@
         <v>4</v>
       </c>
       <c r="C49" t="s" s="33">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D49" s="34">
         <v>301</v>
       </c>
       <c r="E49" t="s" s="33">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" ht="23" customHeight="1">
@@ -5013,13 +5051,13 @@
         <v>3</v>
       </c>
       <c r="C50" t="s" s="33">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D50" s="34">
         <v>300</v>
       </c>
       <c r="E50" t="s" s="33">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" ht="23" customHeight="1">
@@ -5030,13 +5068,13 @@
         <v>4</v>
       </c>
       <c r="C51" t="s" s="33">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D51" s="34">
         <v>305</v>
       </c>
       <c r="E51" t="s" s="33">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" ht="23" customHeight="1">
@@ -5047,13 +5085,13 @@
         <v>4</v>
       </c>
       <c r="C52" t="s" s="33">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D52" s="34">
         <v>305</v>
       </c>
       <c r="E52" t="s" s="33">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" ht="23" customHeight="1">
@@ -5064,13 +5102,13 @@
         <v>4</v>
       </c>
       <c r="C53" t="s" s="33">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D53" s="34">
         <v>305</v>
       </c>
       <c r="E53" t="s" s="33">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" ht="23" customHeight="1">
@@ -5081,13 +5119,13 @@
         <v>4</v>
       </c>
       <c r="C54" t="s" s="33">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D54" s="34">
         <v>305</v>
       </c>
       <c r="E54" t="s" s="33">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" ht="23" customHeight="1">
@@ -5098,13 +5136,13 @@
         <v>3</v>
       </c>
       <c r="C55" t="s" s="33">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D55" s="34">
         <v>300</v>
       </c>
       <c r="E55" t="s" s="33">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" ht="23" customHeight="1">
@@ -5115,13 +5153,13 @@
         <v>4</v>
       </c>
       <c r="C56" t="s" s="33">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D56" s="34">
         <v>310</v>
       </c>
       <c r="E56" t="s" s="33">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" ht="23" customHeight="1">
@@ -5132,13 +5170,13 @@
         <v>4</v>
       </c>
       <c r="C57" t="s" s="33">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D57" s="34">
         <v>310</v>
       </c>
       <c r="E57" t="s" s="33">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" ht="23" customHeight="1">
@@ -5149,13 +5187,13 @@
         <v>4</v>
       </c>
       <c r="C58" t="s" s="33">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D58" s="34">
         <v>310</v>
       </c>
       <c r="E58" t="s" s="33">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" ht="23" customHeight="1">
@@ -5166,13 +5204,13 @@
         <v>4</v>
       </c>
       <c r="C59" t="s" s="33">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D59" s="34">
         <v>310</v>
       </c>
       <c r="E59" t="s" s="33">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" ht="23" customHeight="1">
@@ -5183,13 +5221,13 @@
         <v>4</v>
       </c>
       <c r="C60" t="s" s="33">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D60" s="34">
         <v>310</v>
       </c>
       <c r="E60" t="s" s="33">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" ht="23" customHeight="1">
@@ -5200,13 +5238,13 @@
         <v>3</v>
       </c>
       <c r="C61" t="s" s="33">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D61" s="34">
         <v>300</v>
       </c>
       <c r="E61" t="s" s="33">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" ht="23" customHeight="1">
@@ -5217,13 +5255,13 @@
         <v>4</v>
       </c>
       <c r="C62" t="s" s="33">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D62" s="34">
         <v>316</v>
       </c>
       <c r="E62" t="s" s="33">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" ht="23" customHeight="1">
@@ -5234,13 +5272,13 @@
         <v>4</v>
       </c>
       <c r="C63" t="s" s="33">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D63" s="34">
         <v>316</v>
       </c>
       <c r="E63" t="s" s="33">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" ht="23" customHeight="1">
@@ -5251,13 +5289,13 @@
         <v>4</v>
       </c>
       <c r="C64" t="s" s="33">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D64" s="34">
         <v>316</v>
       </c>
       <c r="E64" t="s" s="33">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" ht="23" customHeight="1">
@@ -5268,13 +5306,13 @@
         <v>3</v>
       </c>
       <c r="C65" t="s" s="33">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D65" s="34">
         <v>300</v>
       </c>
       <c r="E65" t="s" s="33">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" ht="23" customHeight="1">
@@ -5292,13 +5330,13 @@
         <v>2</v>
       </c>
       <c r="C67" t="s" s="33">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D67" s="34">
         <v>1</v>
       </c>
       <c r="E67" t="s" s="33">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="68" ht="23" customHeight="1">
@@ -5309,7 +5347,7 @@
         <v>3</v>
       </c>
       <c r="C68" t="s" s="33">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D68" s="34">
         <v>400</v>
@@ -5324,7 +5362,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="s" s="33">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D69" s="34">
         <v>400</v>
@@ -5339,7 +5377,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="s" s="33">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D70" s="34">
         <v>402</v>
@@ -5354,7 +5392,7 @@
         <v>4</v>
       </c>
       <c r="C71" t="s" s="33">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D71" s="34">
         <v>402</v>
@@ -5369,7 +5407,7 @@
         <v>3</v>
       </c>
       <c r="C72" t="s" s="33">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D72" s="34">
         <v>400</v>
@@ -5384,7 +5422,7 @@
         <v>4</v>
       </c>
       <c r="C73" t="s" s="33">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D73" s="34">
         <v>405</v>
@@ -5399,7 +5437,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="s" s="33">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D74" s="34">
         <v>405</v>
@@ -5414,7 +5452,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="s" s="33">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D75" s="34">
         <v>405</v>
@@ -5429,7 +5467,7 @@
         <v>4</v>
       </c>
       <c r="C76" t="s" s="33">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D76" s="34">
         <v>405</v>
@@ -5444,7 +5482,7 @@
         <v>4</v>
       </c>
       <c r="C77" t="s" s="33">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D77" s="34">
         <v>405</v>
@@ -5459,7 +5497,7 @@
         <v>4</v>
       </c>
       <c r="C78" t="s" s="33">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D78" s="34">
         <v>405</v>
@@ -5474,7 +5512,7 @@
         <v>3</v>
       </c>
       <c r="C79" t="s" s="33">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D79" s="34">
         <v>400</v>
@@ -5489,7 +5527,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="s" s="33">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D80" s="34">
         <v>412</v>
@@ -5504,7 +5542,7 @@
         <v>5</v>
       </c>
       <c r="C81" t="s" s="33">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D81" s="34">
         <v>413</v>
@@ -5519,7 +5557,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s" s="33">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D82" s="34">
         <v>413</v>
@@ -5534,7 +5572,7 @@
         <v>5</v>
       </c>
       <c r="C83" t="s" s="33">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D83" s="34">
         <v>413</v>
@@ -5549,7 +5587,7 @@
         <v>5</v>
       </c>
       <c r="C84" t="s" s="33">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D84" s="34">
         <v>413</v>
@@ -5564,7 +5602,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="s" s="33">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D85" s="34">
         <v>412</v>
@@ -5579,7 +5617,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="s" s="33">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D86" s="34">
         <v>418</v>
@@ -5594,7 +5632,7 @@
         <v>5</v>
       </c>
       <c r="C87" t="s" s="33">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D87" s="34">
         <v>418</v>
@@ -5609,7 +5647,7 @@
         <v>5</v>
       </c>
       <c r="C88" t="s" s="33">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D88" s="34">
         <v>418</v>
@@ -5624,7 +5662,7 @@
         <v>4</v>
       </c>
       <c r="C89" t="s" s="33">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D89" s="34">
         <v>412</v>
@@ -5639,7 +5677,7 @@
         <v>5</v>
       </c>
       <c r="C90" t="s" s="33">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D90" s="34">
         <v>422</v>
@@ -5654,7 +5692,7 @@
         <v>5</v>
       </c>
       <c r="C91" t="s" s="33">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D91" s="34">
         <v>422</v>
@@ -5669,7 +5707,7 @@
         <v>5</v>
       </c>
       <c r="C92" t="s" s="33">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D92" s="34">
         <v>422</v>
@@ -5684,7 +5722,7 @@
         <v>4</v>
       </c>
       <c r="C93" t="s" s="33">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D93" s="34">
         <v>412</v>
@@ -5699,7 +5737,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="s" s="33">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D94" s="34">
         <v>400</v>
@@ -5714,7 +5752,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="s" s="33">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D95" s="34">
         <v>427</v>
@@ -5729,7 +5767,7 @@
         <v>4</v>
       </c>
       <c r="C96" t="s" s="33">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D96" s="34">
         <v>427</v>
@@ -5744,7 +5782,7 @@
         <v>5</v>
       </c>
       <c r="C97" t="s" s="33">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D97" s="34">
         <v>429</v>
@@ -5759,7 +5797,7 @@
         <v>5</v>
       </c>
       <c r="C98" t="s" s="33">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D98" s="34">
         <v>429</v>
@@ -5774,7 +5812,7 @@
         <v>5</v>
       </c>
       <c r="C99" t="s" s="33">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D99" s="34">
         <v>429</v>
@@ -5789,7 +5827,7 @@
         <v>5</v>
       </c>
       <c r="C100" t="s" s="33">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D100" s="34">
         <v>429</v>
@@ -5804,7 +5842,7 @@
         <v>5</v>
       </c>
       <c r="C101" t="s" s="33">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D101" s="34">
         <v>429</v>
@@ -5819,7 +5857,7 @@
         <v>4</v>
       </c>
       <c r="C102" t="s" s="33">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D102" s="34">
         <v>427</v>
@@ -5834,7 +5872,7 @@
         <v>3</v>
       </c>
       <c r="C103" t="s" s="33">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D103" s="34">
         <v>400</v>
@@ -5849,7 +5887,7 @@
         <v>4</v>
       </c>
       <c r="C104" t="s" s="33">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D104" s="34">
         <v>436</v>
@@ -5864,7 +5902,7 @@
         <v>4</v>
       </c>
       <c r="C105" t="s" s="33">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D105" s="34">
         <v>436</v>
@@ -5879,7 +5917,7 @@
         <v>4</v>
       </c>
       <c r="C106" t="s" s="33">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D106" s="34">
         <v>436</v>
@@ -5894,7 +5932,7 @@
         <v>4</v>
       </c>
       <c r="C107" t="s" s="33">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D107" s="34">
         <v>436</v>
@@ -5909,7 +5947,7 @@
         <v>3</v>
       </c>
       <c r="C108" t="s" s="33">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D108" s="34">
         <v>400</v>
@@ -5924,7 +5962,7 @@
         <v>4</v>
       </c>
       <c r="C109" t="s" s="33">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D109" s="34">
         <v>441</v>
@@ -5939,7 +5977,7 @@
         <v>4</v>
       </c>
       <c r="C110" t="s" s="33">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D110" s="34">
         <v>441</v>
@@ -5954,7 +5992,7 @@
         <v>4</v>
       </c>
       <c r="C111" t="s" s="33">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D111" s="34">
         <v>441</v>
@@ -5969,7 +6007,7 @@
         <v>3</v>
       </c>
       <c r="C112" t="s" s="33">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D112" s="34">
         <v>400</v>
@@ -5984,7 +6022,7 @@
         <v>4</v>
       </c>
       <c r="C113" t="s" s="33">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D113" s="34">
         <v>445</v>
@@ -5999,7 +6037,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="s" s="33">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D114" s="34">
         <v>445</v>
@@ -6014,7 +6052,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="s" s="33">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D115" s="34">
         <v>445</v>
@@ -6029,7 +6067,7 @@
         <v>3</v>
       </c>
       <c r="C116" t="s" s="33">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D116" s="34">
         <v>400</v>
@@ -6044,7 +6082,7 @@
         <v>4</v>
       </c>
       <c r="C117" t="s" s="33">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D117" s="34">
         <v>449</v>
@@ -6059,7 +6097,7 @@
         <v>4</v>
       </c>
       <c r="C118" t="s" s="33">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D118" s="34">
         <v>449</v>
@@ -6074,7 +6112,7 @@
         <v>4</v>
       </c>
       <c r="C119" t="s" s="33">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D119" s="34">
         <v>449</v>
@@ -6089,7 +6127,7 @@
         <v>3</v>
       </c>
       <c r="C120" t="s" s="33">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D120" s="34">
         <v>400</v>
@@ -6104,7 +6142,7 @@
         <v>4</v>
       </c>
       <c r="C121" t="s" s="33">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D121" s="34">
         <v>453</v>
@@ -6119,7 +6157,7 @@
         <v>4</v>
       </c>
       <c r="C122" t="s" s="33">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D122" s="34">
         <v>453</v>
@@ -6134,7 +6172,7 @@
         <v>4</v>
       </c>
       <c r="C123" t="s" s="33">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D123" s="34">
         <v>453</v>
@@ -6149,7 +6187,7 @@
         <v>4</v>
       </c>
       <c r="C124" t="s" s="33">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D124" s="34">
         <v>453</v>
@@ -6171,13 +6209,13 @@
         <v>2</v>
       </c>
       <c r="C126" t="s" s="33">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D126" s="34">
         <v>1</v>
       </c>
       <c r="E126" t="s" s="33">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="127" ht="23" customHeight="1">
@@ -6188,7 +6226,7 @@
         <v>3</v>
       </c>
       <c r="C127" t="s" s="33">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D127" s="34">
         <v>500</v>
@@ -6203,7 +6241,7 @@
         <v>3</v>
       </c>
       <c r="C128" t="s" s="33">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D128" s="34">
         <v>500</v>
@@ -6218,7 +6256,7 @@
         <v>4</v>
       </c>
       <c r="C129" t="s" s="33">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D129" s="34">
         <v>502</v>
@@ -6233,7 +6271,7 @@
         <v>4</v>
       </c>
       <c r="C130" t="s" s="33">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D130" s="34">
         <v>502</v>
@@ -6248,7 +6286,7 @@
         <v>3</v>
       </c>
       <c r="C131" t="s" s="33">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D131" s="34">
         <v>500</v>
@@ -6263,7 +6301,7 @@
         <v>4</v>
       </c>
       <c r="C132" t="s" s="33">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D132" s="34">
         <v>505</v>
@@ -6278,7 +6316,7 @@
         <v>4</v>
       </c>
       <c r="C133" t="s" s="33">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D133" s="34">
         <v>505</v>
@@ -6293,7 +6331,7 @@
         <v>4</v>
       </c>
       <c r="C134" t="s" s="33">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D134" s="34">
         <v>505</v>
@@ -6308,7 +6346,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="s" s="33">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D135" s="34">
         <v>505</v>
@@ -6323,7 +6361,7 @@
         <v>3</v>
       </c>
       <c r="C136" t="s" s="33">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D136" s="34">
         <v>500</v>
@@ -6338,7 +6376,7 @@
         <v>4</v>
       </c>
       <c r="C137" t="s" s="33">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D137" s="34">
         <v>510</v>
@@ -6353,7 +6391,7 @@
         <v>4</v>
       </c>
       <c r="C138" t="s" s="33">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D138" s="34">
         <v>510</v>
@@ -6368,7 +6406,7 @@
         <v>3</v>
       </c>
       <c r="C139" t="s" s="33">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D139" s="34">
         <v>500</v>
@@ -6390,13 +6428,13 @@
         <v>2</v>
       </c>
       <c r="C141" t="s" s="33">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D141" s="34">
         <v>1</v>
       </c>
       <c r="E141" t="s" s="33">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="142" ht="23" customHeight="1">
@@ -6407,7 +6445,7 @@
         <v>3</v>
       </c>
       <c r="C142" t="s" s="33">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D142" s="34">
         <v>600</v>
@@ -6422,7 +6460,7 @@
         <v>3</v>
       </c>
       <c r="C143" t="s" s="33">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D143" s="34">
         <v>600</v>
@@ -6437,7 +6475,7 @@
         <v>4</v>
       </c>
       <c r="C144" t="s" s="33">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D144" s="34">
         <v>602</v>
@@ -6452,7 +6490,7 @@
         <v>4</v>
       </c>
       <c r="C145" t="s" s="33">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D145" s="34">
         <v>602</v>
@@ -6467,7 +6505,7 @@
         <v>4</v>
       </c>
       <c r="C146" t="s" s="33">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D146" s="34">
         <v>602</v>
@@ -6482,7 +6520,7 @@
         <v>4</v>
       </c>
       <c r="C147" t="s" s="33">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D147" s="34">
         <v>602</v>
@@ -6497,7 +6535,7 @@
         <v>3</v>
       </c>
       <c r="C148" t="s" s="33">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D148" s="34">
         <v>600</v>
@@ -6512,7 +6550,7 @@
         <v>4</v>
       </c>
       <c r="C149" t="s" s="33">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D149" s="34">
         <v>607</v>
@@ -6527,7 +6565,7 @@
         <v>4</v>
       </c>
       <c r="C150" t="s" s="33">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D150" s="34">
         <v>607</v>
@@ -6542,7 +6580,7 @@
         <v>4</v>
       </c>
       <c r="C151" t="s" s="33">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D151" s="34">
         <v>607</v>
@@ -6557,7 +6595,7 @@
         <v>4</v>
       </c>
       <c r="C152" t="s" s="33">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D152" s="34">
         <v>607</v>
@@ -6572,7 +6610,7 @@
         <v>3</v>
       </c>
       <c r="C153" t="s" s="33">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D153" s="34">
         <v>600</v>
@@ -6587,7 +6625,7 @@
         <v>4</v>
       </c>
       <c r="C154" t="s" s="33">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D154" s="34">
         <v>612</v>
@@ -6602,7 +6640,7 @@
         <v>4</v>
       </c>
       <c r="C155" t="s" s="33">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D155" s="34">
         <v>612</v>
@@ -6617,7 +6655,7 @@
         <v>4</v>
       </c>
       <c r="C156" t="s" s="33">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D156" s="34">
         <v>612</v>
@@ -6632,7 +6670,7 @@
         <v>3</v>
       </c>
       <c r="C157" t="s" s="33">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D157" s="34">
         <v>600</v>
@@ -6647,7 +6685,7 @@
         <v>4</v>
       </c>
       <c r="C158" t="s" s="33">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D158" s="34">
         <v>616</v>
@@ -6662,7 +6700,7 @@
         <v>4</v>
       </c>
       <c r="C159" t="s" s="33">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D159" s="34">
         <v>616</v>
@@ -6677,7 +6715,7 @@
         <v>4</v>
       </c>
       <c r="C160" t="s" s="33">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D160" s="34">
         <v>616</v>
@@ -6692,7 +6730,7 @@
         <v>4</v>
       </c>
       <c r="C161" t="s" s="33">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D161" s="34">
         <v>616</v>
@@ -6707,7 +6745,7 @@
         <v>4</v>
       </c>
       <c r="C162" t="s" s="33">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D162" s="34">
         <v>616</v>
@@ -6722,7 +6760,7 @@
         <v>3</v>
       </c>
       <c r="C163" t="s" s="33">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D163" s="34">
         <v>600</v>
@@ -6744,13 +6782,13 @@
         <v>2</v>
       </c>
       <c r="C165" t="s" s="33">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D165" s="34">
         <v>1</v>
       </c>
       <c r="E165" t="s" s="33">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="166" ht="23" customHeight="1">
@@ -6761,7 +6799,7 @@
         <v>3</v>
       </c>
       <c r="C166" t="s" s="33">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D166" s="34">
         <v>700</v>
@@ -6776,7 +6814,7 @@
         <v>3</v>
       </c>
       <c r="C167" t="s" s="33">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D167" s="34">
         <v>700</v>
@@ -6791,7 +6829,7 @@
         <v>4</v>
       </c>
       <c r="C168" t="s" s="33">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D168" s="34">
         <v>702</v>
@@ -6806,7 +6844,7 @@
         <v>4</v>
       </c>
       <c r="C169" t="s" s="33">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D169" s="34">
         <v>702</v>
@@ -6821,7 +6859,7 @@
         <v>4</v>
       </c>
       <c r="C170" t="s" s="33">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D170" s="34">
         <v>702</v>
@@ -6836,7 +6874,7 @@
         <v>3</v>
       </c>
       <c r="C171" t="s" s="33">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D171" s="34">
         <v>700</v>
@@ -6851,7 +6889,7 @@
         <v>4</v>
       </c>
       <c r="C172" t="s" s="33">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D172" s="34">
         <v>706</v>
@@ -6866,7 +6904,7 @@
         <v>4</v>
       </c>
       <c r="C173" t="s" s="33">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D173" s="34">
         <v>706</v>
@@ -6881,7 +6919,7 @@
         <v>4</v>
       </c>
       <c r="C174" t="s" s="33">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D174" s="34">
         <v>706</v>
@@ -6896,7 +6934,7 @@
         <v>3</v>
       </c>
       <c r="C175" t="s" s="33">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D175" s="34">
         <v>700</v>
@@ -6911,7 +6949,7 @@
         <v>4</v>
       </c>
       <c r="C176" t="s" s="33">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D176" s="34">
         <v>710</v>
@@ -6926,7 +6964,7 @@
         <v>4</v>
       </c>
       <c r="C177" t="s" s="33">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D177" s="34">
         <v>710</v>
@@ -6941,7 +6979,7 @@
         <v>4</v>
       </c>
       <c r="C178" t="s" s="33">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D178" s="34">
         <v>710</v>
@@ -6956,7 +6994,7 @@
         <v>3</v>
       </c>
       <c r="C179" t="s" s="33">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D179" s="34">
         <v>700</v>
@@ -6971,7 +7009,7 @@
         <v>4</v>
       </c>
       <c r="C180" t="s" s="33">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D180" s="34">
         <v>714</v>
@@ -6986,7 +7024,7 @@
         <v>4</v>
       </c>
       <c r="C181" t="s" s="33">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D181" s="34">
         <v>714</v>
@@ -7001,7 +7039,7 @@
         <v>4</v>
       </c>
       <c r="C182" t="s" s="33">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D182" s="34">
         <v>714</v>
@@ -7016,7 +7054,7 @@
         <v>3</v>
       </c>
       <c r="C183" t="s" s="33">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D183" s="34">
         <v>700</v>
@@ -7031,7 +7069,7 @@
         <v>4</v>
       </c>
       <c r="C184" t="s" s="33">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D184" s="34">
         <v>718</v>
@@ -7046,7 +7084,7 @@
         <v>4</v>
       </c>
       <c r="C185" t="s" s="33">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D185" s="34">
         <v>718</v>
@@ -7061,7 +7099,7 @@
         <v>4</v>
       </c>
       <c r="C186" t="s" s="33">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D186" s="34">
         <v>718</v>
@@ -7076,7 +7114,7 @@
         <v>4</v>
       </c>
       <c r="C187" t="s" s="33">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D187" s="34">
         <v>718</v>
@@ -7091,7 +7129,7 @@
         <v>3</v>
       </c>
       <c r="C188" t="s" s="33">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D188" s="34">
         <v>700</v>
@@ -7106,7 +7144,7 @@
         <v>3</v>
       </c>
       <c r="C189" t="s" s="33">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D189" s="34">
         <v>700</v>
@@ -7128,13 +7166,13 @@
         <v>2</v>
       </c>
       <c r="C191" t="s" s="33">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D191" s="34">
         <v>1</v>
       </c>
       <c r="E191" t="s" s="33">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="192" ht="23" customHeight="1">
@@ -7145,7 +7183,7 @@
         <v>3</v>
       </c>
       <c r="C192" t="s" s="33">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D192" s="34">
         <v>800</v>
@@ -7160,7 +7198,7 @@
         <v>3</v>
       </c>
       <c r="C193" t="s" s="33">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D193" s="34">
         <v>800</v>
@@ -7175,7 +7213,7 @@
         <v>4</v>
       </c>
       <c r="C194" t="s" s="33">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D194" s="34">
         <v>802</v>
@@ -7190,7 +7228,7 @@
         <v>4</v>
       </c>
       <c r="C195" t="s" s="33">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D195" s="34">
         <v>802</v>
@@ -7205,7 +7243,7 @@
         <v>3</v>
       </c>
       <c r="C196" t="s" s="33">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D196" s="34">
         <v>800</v>
@@ -7220,7 +7258,7 @@
         <v>4</v>
       </c>
       <c r="C197" t="s" s="33">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D197" s="34">
         <v>805</v>
@@ -7235,7 +7273,7 @@
         <v>4</v>
       </c>
       <c r="C198" t="s" s="33">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D198" s="34">
         <v>805</v>
@@ -7250,7 +7288,7 @@
         <v>3</v>
       </c>
       <c r="C199" t="s" s="33">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D199" s="34">
         <v>800</v>
@@ -7265,7 +7303,7 @@
         <v>4</v>
       </c>
       <c r="C200" t="s" s="33">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D200" s="34">
         <v>808</v>
@@ -7280,7 +7318,7 @@
         <v>4</v>
       </c>
       <c r="C201" t="s" s="33">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D201" s="34">
         <v>808</v>
@@ -7295,7 +7333,7 @@
         <v>3</v>
       </c>
       <c r="C202" t="s" s="33">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D202" s="34">
         <v>800</v>
@@ -7317,13 +7355,13 @@
         <v>2</v>
       </c>
       <c r="C204" t="s" s="33">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D204" s="34">
         <v>1</v>
       </c>
       <c r="E204" t="s" s="33">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="205" ht="23" customHeight="1">
@@ -7334,7 +7372,7 @@
         <v>3</v>
       </c>
       <c r="C205" t="s" s="33">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D205" s="34">
         <v>900</v>
@@ -7349,7 +7387,7 @@
         <v>4</v>
       </c>
       <c r="C206" t="s" s="33">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D206" s="34">
         <v>901</v>
@@ -7364,7 +7402,7 @@
         <v>4</v>
       </c>
       <c r="C207" t="s" s="33">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D207" s="34">
         <v>901</v>
@@ -7379,7 +7417,7 @@
         <v>4</v>
       </c>
       <c r="C208" t="s" s="33">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D208" s="34">
         <v>901</v>
@@ -7394,7 +7432,7 @@
         <v>4</v>
       </c>
       <c r="C209" t="s" s="33">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D209" s="34">
         <v>901</v>
@@ -7409,7 +7447,7 @@
         <v>4</v>
       </c>
       <c r="C210" t="s" s="33">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D210" s="34">
         <v>901</v>
@@ -7424,7 +7462,7 @@
         <v>4</v>
       </c>
       <c r="C211" t="s" s="33">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D211" s="34">
         <v>901</v>
@@ -7439,7 +7477,7 @@
         <v>3</v>
       </c>
       <c r="C212" t="s" s="33">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D212" s="34">
         <v>900</v>
@@ -7454,7 +7492,7 @@
         <v>4</v>
       </c>
       <c r="C213" t="s" s="33">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D213" s="34">
         <v>908</v>
@@ -7469,7 +7507,7 @@
         <v>4</v>
       </c>
       <c r="C214" t="s" s="33">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D214" s="34">
         <v>908</v>
@@ -7484,7 +7522,7 @@
         <v>4</v>
       </c>
       <c r="C215" t="s" s="33">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D215" s="34">
         <v>908</v>
@@ -7499,7 +7537,7 @@
         <v>4</v>
       </c>
       <c r="C216" t="s" s="33">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D216" s="34">
         <v>908</v>
@@ -7514,7 +7552,7 @@
         <v>4</v>
       </c>
       <c r="C217" t="s" s="33">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D217" s="34">
         <v>908</v>
@@ -7529,7 +7567,7 @@
         <v>4</v>
       </c>
       <c r="C218" t="s" s="33">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D218" s="34">
         <v>908</v>
@@ -7544,7 +7582,7 @@
         <v>4</v>
       </c>
       <c r="C219" t="s" s="33">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D219" s="34">
         <v>908</v>
@@ -7559,7 +7597,7 @@
         <v>4</v>
       </c>
       <c r="C220" t="s" s="33">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D220" s="34">
         <v>908</v>
@@ -7574,7 +7612,7 @@
         <v>3</v>
       </c>
       <c r="C221" t="s" s="33">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D221" s="34">
         <v>900</v>
@@ -7589,7 +7627,7 @@
         <v>4</v>
       </c>
       <c r="C222" t="s" s="33">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D222" s="34">
         <v>917</v>
@@ -7611,13 +7649,13 @@
         <v>2</v>
       </c>
       <c r="C224" t="s" s="33">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D224" s="34">
         <v>1</v>
       </c>
       <c r="E224" t="s" s="33">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="225" ht="23" customHeight="1">
@@ -7628,7 +7666,7 @@
         <v>3</v>
       </c>
       <c r="C225" t="s" s="33">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D225" s="34">
         <v>1000</v>
@@ -7643,7 +7681,7 @@
         <v>3</v>
       </c>
       <c r="C226" t="s" s="33">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D226" s="34">
         <v>1000</v>
@@ -7658,7 +7696,7 @@
         <v>4</v>
       </c>
       <c r="C227" t="s" s="33">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D227" s="34">
         <v>1002</v>
@@ -7673,7 +7711,7 @@
         <v>4</v>
       </c>
       <c r="C228" t="s" s="33">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D228" s="34">
         <v>1002</v>
@@ -7688,7 +7726,7 @@
         <v>4</v>
       </c>
       <c r="C229" t="s" s="33">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D229" s="34">
         <v>1002</v>
@@ -7703,7 +7741,7 @@
         <v>3</v>
       </c>
       <c r="C230" t="s" s="33">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D230" s="34">
         <v>1000</v>
@@ -7718,7 +7756,7 @@
         <v>4</v>
       </c>
       <c r="C231" t="s" s="33">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D231" s="34">
         <v>1006</v>
@@ -7733,7 +7771,7 @@
         <v>4</v>
       </c>
       <c r="C232" t="s" s="33">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D232" s="34">
         <v>1006</v>
@@ -7748,7 +7786,7 @@
         <v>4</v>
       </c>
       <c r="C233" t="s" s="33">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D233" s="34">
         <v>1006</v>
@@ -7763,7 +7801,7 @@
         <v>4</v>
       </c>
       <c r="C234" t="s" s="33">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D234" s="34">
         <v>1006</v>
@@ -7778,7 +7816,7 @@
         <v>3</v>
       </c>
       <c r="C235" t="s" s="33">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D235" s="34">
         <v>1000</v>
@@ -7793,7 +7831,7 @@
         <v>3</v>
       </c>
       <c r="C236" t="s" s="33">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D236" s="34">
         <v>1000</v>
@@ -7815,7 +7853,7 @@
         <v>2</v>
       </c>
       <c r="C238" t="s" s="33">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D238" s="34">
         <v>1</v>
@@ -7830,7 +7868,7 @@
         <v>3</v>
       </c>
       <c r="C239" t="s" s="33">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D239" s="34">
         <v>1100</v>
@@ -7845,7 +7883,7 @@
         <v>4</v>
       </c>
       <c r="C240" t="s" s="33">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D240" s="34">
         <v>1101</v>
@@ -7860,7 +7898,7 @@
         <v>3</v>
       </c>
       <c r="C241" t="s" s="33">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D241" s="34">
         <v>1100</v>
@@ -7882,7 +7920,7 @@
         <v>2</v>
       </c>
       <c r="C243" t="s" s="33">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D243" s="34">
         <v>1</v>
@@ -7897,7 +7935,7 @@
         <v>3</v>
       </c>
       <c r="C244" t="s" s="33">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D244" s="34">
         <v>1200</v>
@@ -7912,7 +7950,7 @@
         <v>4</v>
       </c>
       <c r="C245" t="s" s="33">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D245" s="34">
         <v>1201</v>
@@ -7927,7 +7965,7 @@
         <v>3</v>
       </c>
       <c r="C246" t="s" s="33">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D246" s="34">
         <v>1200</v>
